--- a/Ijarah_Arul/TestData/IjaraJSPaths.xlsx
+++ b/Ijarah_Arul/TestData/IjaraJSPaths.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="21075" windowHeight="8265" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="21075" windowHeight="8265" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="699">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -1320,9 +1320,6 @@
     <t>RepaymentMode</t>
   </si>
   <si>
-    <t>document.querySelector('digital-select-layout[ng-reflect-name="repayMode"]')</t>
-  </si>
-  <si>
     <t>AccountHolderName</t>
   </si>
   <si>
@@ -2043,9 +2040,6 @@
     <t>SequenceNumber</t>
   </si>
   <si>
-    <t>document.querySelector('ion-label[ng-reflect-text="Sequence Number.TOOLTIP"]+ion-input')</t>
-  </si>
-  <si>
     <t>NoteSubcode</t>
   </si>
   <si>
@@ -2058,9 +2052,6 @@
     <t>document.querySelector('digital-select-layout[ng-reflect-name="ltemPlateId"] ion-select')</t>
   </si>
   <si>
-    <t>document.querySelector('ion-label[ng-reflect-text="Condition.TOOLTIP"]+ion-input')</t>
-  </si>
-  <si>
     <t>fulfilled</t>
   </si>
   <si>
@@ -2073,9 +2064,6 @@
     <t>document.querySelector('digital-radio-button[ng-reflect-title="Approval Status"] ion-toggle')</t>
   </si>
   <si>
-    <t>document.querySelector('digital-text-box[ng-reflect-title="SCR.REMARKS"] ion-textarea')</t>
-  </si>
-  <si>
     <t>document.querySelector('digital-prime-date[ng-reflect-title="Date"] button')</t>
   </si>
   <si>
@@ -2085,10 +2073,55 @@
     <t>document.querySelector('button[ng-reflect-label="Today"]')</t>
   </si>
   <si>
-    <t>Save</t>
-  </si>
-  <si>
-    <t>button[icon="pi pi-save"]</t>
+    <t>document.querySelector('th[ng-reflect-field="documentIdDesc"]')</t>
+  </si>
+  <si>
+    <t>ViewList_DocumentNameField</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="requiredByStageDesc"]')</t>
+  </si>
+  <si>
+    <t>ViewList_RequredAtStageField</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="receivedStatusDesc"]')</t>
+  </si>
+  <si>
+    <t>ViewList_DocumentStatusField</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="isMandatoryDesc"]')</t>
+  </si>
+  <si>
+    <t>ViewList_MandatoryOptionalField</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="documentClassIdDesc"]')</t>
+  </si>
+  <si>
+    <t>ViewList_DocumentCategoryField</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="scannedStatusDesc"]')</t>
+  </si>
+  <si>
+    <t>VierList_DMSUploadStatus</t>
+  </si>
+  <si>
+    <t>document.querySelector('app-screen span[class="p-paginator-current ng-star-inserted"]').innerText</t>
+  </si>
+  <si>
+    <t>listViewSearchResultValidation</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Sequence Number.TOOLTIP"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Condition.TOOLTIP"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="SCR.REMARKS"] ion-textarea textarea')</t>
   </si>
 </sst>
 </file>
@@ -2464,7 +2497,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2558,7 +2593,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="6" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -2574,26 +2609,26 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>602</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>604</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="7" customFormat="1">
       <c r="A5" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>606</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2606,66 +2641,66 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>608</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>610</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>612</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>614</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>616</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>618</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>620</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>622</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="15" spans="1:2" s="7" customFormat="1">
@@ -2673,87 +2708,87 @@
         <v>396</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="5" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2766,34 +2801,34 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="28" spans="1:2" s="7" customFormat="1">
       <c r="A28" s="7" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2835,7 +2870,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="7" customFormat="1">
       <c r="A1" s="8" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -2843,7 +2878,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>168</v>
@@ -2851,10 +2886,10 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>602</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2862,15 +2897,15 @@
         <v>396</v>
       </c>
       <c r="B4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2883,42 +2918,42 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="B7" t="s">
         <v>654</v>
-      </c>
-      <c r="B7" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B9" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B11" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2931,7 +2966,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B13" t="s">
         <v>322</v>
@@ -2947,10 +2982,10 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B15" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
   </sheetData>
@@ -2961,10 +2996,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2983,50 +3018,50 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="9" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>667</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>669</v>
       </c>
-      <c r="B4" s="9" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="26.25">
+      <c r="A5" s="9" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="9" t="s">
-        <v>671</v>
-      </c>
       <c r="B5" s="9" t="s">
-        <v>672</v>
+        <v>696</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="9" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="9" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3034,31 +3069,31 @@
         <v>338</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>677</v>
+        <v>697</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="9" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="9" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="26.25">
       <c r="A11" s="9" t="s">
         <v>344</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>682</v>
+        <v>698</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3066,23 +3101,31 @@
         <v>340</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="9" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="9" t="s">
-        <v>686</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>687</v>
+      <c r="A14" t="s">
+        <v>345</v>
+      </c>
+      <c r="B14" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -4468,10 +4511,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B26" sqref="A26:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4874,10 +4917,66 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
+        <v>483</v>
+      </c>
+      <c r="B50" t="s">
         <v>484</v>
       </c>
-      <c r="B50" t="s">
-        <v>485</v>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>683</v>
+      </c>
+      <c r="B51" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>685</v>
+      </c>
+      <c r="B52" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>687</v>
+      </c>
+      <c r="B53" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>689</v>
+      </c>
+      <c r="B54" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>691</v>
+      </c>
+      <c r="B55" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>693</v>
+      </c>
+      <c r="B56" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>695</v>
+      </c>
+      <c r="B57" t="s">
+        <v>694</v>
       </c>
     </row>
   </sheetData>
@@ -4890,7 +4989,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4901,7 +5000,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4912,63 +5011,63 @@
         <v>430</v>
       </c>
       <c r="B2" t="s">
-        <v>431</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4981,63 +5080,63 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B12" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B13" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
+        <v>453</v>
+      </c>
+      <c r="B15" t="s">
         <v>454</v>
-      </c>
-      <c r="B15" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B16" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B17" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B18" t="s">
         <v>173</v>
@@ -5072,7 +5171,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -5080,82 +5179,82 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B10" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5168,7 +5267,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B13" t="s">
         <v>164</v>
@@ -5204,7 +5303,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -5212,199 +5311,199 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B8" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B12" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B13" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B14" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B15" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B16" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B17" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B18" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B19" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B20" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B21" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B22" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B23" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B24" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B25" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B26" t="s">
         <v>313</v>
@@ -5412,18 +5511,18 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B27" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B28" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -5444,10 +5543,10 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B31" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
   </sheetData>
@@ -5461,10 +5560,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5475,7 +5574,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -5486,7 +5585,7 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5494,239 +5593,247 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>543</v>
+      </c>
+      <c r="B4" t="s">
         <v>544</v>
-      </c>
-      <c r="B4" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>545</v>
+      </c>
+      <c r="B5" t="s">
         <v>546</v>
-      </c>
-      <c r="B5" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>547</v>
+      </c>
+      <c r="B6" t="s">
         <v>548</v>
-      </c>
-      <c r="B6" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>549</v>
+      </c>
+      <c r="B7" t="s">
         <v>550</v>
-      </c>
-      <c r="B7" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
+        <v>551</v>
+      </c>
+      <c r="B8" t="s">
         <v>552</v>
-      </c>
-      <c r="B8" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>554</v>
+      </c>
+      <c r="B10" t="s">
         <v>555</v>
-      </c>
-      <c r="B10" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>556</v>
+      </c>
+      <c r="B11" t="s">
         <v>557</v>
-      </c>
-      <c r="B11" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
+        <v>558</v>
+      </c>
+      <c r="B12" t="s">
         <v>559</v>
-      </c>
-      <c r="B12" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
+        <v>560</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>561</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
+        <v>562</v>
+      </c>
+      <c r="B14" t="s">
         <v>563</v>
-      </c>
-      <c r="B14" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
+        <v>564</v>
+      </c>
+      <c r="B15" t="s">
         <v>565</v>
-      </c>
-      <c r="B15" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
+        <v>566</v>
+      </c>
+      <c r="B16" t="s">
         <v>567</v>
-      </c>
-      <c r="B16" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
+        <v>568</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>569</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
+        <v>570</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>571</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>572</v>
+      </c>
+      <c r="B19" t="s">
         <v>573</v>
-      </c>
-      <c r="B19" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
+        <v>574</v>
+      </c>
+      <c r="B20" t="s">
         <v>575</v>
-      </c>
-      <c r="B20" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
+        <v>576</v>
+      </c>
+      <c r="B21" t="s">
         <v>577</v>
-      </c>
-      <c r="B21" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
+        <v>578</v>
+      </c>
+      <c r="B22" t="s">
         <v>579</v>
-      </c>
-      <c r="B22" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
+        <v>580</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>581</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
+        <v>582</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>583</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
+        <v>584</v>
+      </c>
+      <c r="B25" t="s">
         <v>585</v>
-      </c>
-      <c r="B25" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B26" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B27" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B28" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B29" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B30" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B31" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B32" t="s">
-        <v>456</v>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -5736,10 +5843,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5750,7 +5857,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -5758,7 +5865,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B2" t="s">
         <v>171</v>
@@ -5766,15 +5873,15 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B4" t="s">
         <v>372</v>
@@ -5782,10 +5889,10 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5798,18 +5905,26 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B7" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
+        <v>483</v>
+      </c>
+      <c r="B8" t="s">
         <v>484</v>
       </c>
-      <c r="B8" t="s">
-        <v>485</v>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Ijarah_Arul/TestData/IjaraJSPaths.xlsx
+++ b/Ijarah_Arul/TestData/IjaraJSPaths.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="21075" windowHeight="8265" firstSheet="6" activeTab="11"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="21075" windowHeight="8265" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,15 @@
     <sheet name="Tawarraq_IdentificationDetails" sheetId="10" r:id="rId10"/>
     <sheet name="CustomerReference" sheetId="11" r:id="rId11"/>
     <sheet name="Underwriter" sheetId="12" r:id="rId12"/>
+    <sheet name="Murabah_InsuranceInfo" sheetId="13" r:id="rId13"/>
+    <sheet name="Murabah_QuotationInfo" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="790">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -1974,9 +1976,6 @@
     <t>ViewSummaryIcon</t>
   </si>
   <si>
-    <t>document.querySelector('ionic-title[class="ion-title"]').innerText</t>
-  </si>
-  <si>
     <t>TransactionSummaryPage</t>
   </si>
   <si>
@@ -2122,13 +2121,289 @@
   </si>
   <si>
     <t>document.querySelector('digital-text-box[ng-reflect-title="SCR.REMARKS"] ion-textarea textarea')</t>
+  </si>
+  <si>
+    <t>SuccessPopup</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-form-error[msg*="ALPHANUMERIC"]')</t>
+  </si>
+  <si>
+    <t>AlphaNumericCharactersAllowedPopup</t>
+  </si>
+  <si>
+    <t>document.querySelector('ionic-title[class="ion-title"]')</t>
+  </si>
+  <si>
+    <t>MessageBox</t>
+  </si>
+  <si>
+    <t>document.querySelector('#menu-content &gt; app-tabs &gt; kub-header &gt; ion-header &gt; ion-toolbar &gt; section &gt; ion-list &gt; ion-item:nth-child(2) &gt; div &gt; div &gt; ion-icon').shadowRoot.querySelector('div &gt; svg')</t>
+  </si>
+  <si>
+    <t>searchbox</t>
+  </si>
+  <si>
+    <t>searchinput</t>
+  </si>
+  <si>
+    <t>document.querySelector('#pr_id_1 &gt; div.p-datatable-header.ng-star-inserted &gt; div &gt; span.p-input-icon-left.float-end.captionTemplatespan &gt;input')</t>
+  </si>
+  <si>
+    <t>Entitle</t>
+  </si>
+  <si>
+    <t>document.querySelector('#pr_id_1-table &gt; tbody &gt; tr &gt; td.tableuser-inbox &gt; button')</t>
+  </si>
+  <si>
+    <t>insuranceInfo</t>
+  </si>
+  <si>
+    <t>document.querySelector("#seg10")</t>
+  </si>
+  <si>
+    <t>Addbutton</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-icon="pi pi-plus"]')</t>
+  </si>
+  <si>
+    <t>insuranceQuotationId</t>
+  </si>
+  <si>
+    <t>insuranceYear</t>
+  </si>
+  <si>
+    <t>depriciation</t>
+  </si>
+  <si>
+    <t>AssetPrice</t>
+  </si>
+  <si>
+    <t>RatePerAsset</t>
+  </si>
+  <si>
+    <t>minimumInsurancePremium</t>
+  </si>
+  <si>
+    <t>BaseInsurancePremium</t>
+  </si>
+  <si>
+    <t>VATPremium</t>
+  </si>
+  <si>
+    <t>NetPremium</t>
+  </si>
+  <si>
+    <t>saveSuccessAlert</t>
+  </si>
+  <si>
+    <t>document.querySelector('div[role="alert"')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Insurance Quatation Id.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Insurance Year.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Depreciation (%).TOOLTIP"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Asset Price.TOOLTIP"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Rate Per Asset.TOOLTIP"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Minimum Insurance Premium.TOOL"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Base Insurance Premium.TOOLTIP"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="VAT Premium.TOOLTIP"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Net Premium.TOOLTIP"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>ViewList_InsuranceYear</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="insuranceYear"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="depPer"]')</t>
+  </si>
+  <si>
+    <t>ViewList_Depreciation</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="assetCost"]')</t>
+  </si>
+  <si>
+    <t>ViewList_AssetPrice</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="actualPremium"]')</t>
+  </si>
+  <si>
+    <t>ViewList_BaseInsurancePremium</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="vatOnFinalInsPremium"]')</t>
+  </si>
+  <si>
+    <t>ViewList_VATPremium</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="netInsPremium"]')</t>
+  </si>
+  <si>
+    <t>ViewList_NetPremium</t>
+  </si>
+  <si>
+    <t>Murabah_AppDataEntryInsuranceInfo</t>
+  </si>
+  <si>
+    <t>quotationInfoSection</t>
+  </si>
+  <si>
+    <t>document.querySelector("#seg9")</t>
+  </si>
+  <si>
+    <t>backButton</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-text="Go Back"]').firstChild</t>
+  </si>
+  <si>
+    <t>deductibleAmount</t>
+  </si>
+  <si>
+    <t>expiryDateValidation</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Expiry Date.TOOLTIP"]').parentElement.nextElementSibling.querySelector('button')</t>
+  </si>
+  <si>
+    <t>expiryDateInput</t>
+  </si>
+  <si>
+    <t>invalidDataPopup</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-toast').shadowRoot.querySelector('div').lastChild</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Deductible Amount.TOOLTIP"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>insuranceCompanyBpId</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Insurance Company Bp Id.TOOLTI"]+ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Gross Premium Amount.TOOLTIP"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>GrossPremiumAmount</t>
+  </si>
+  <si>
+    <t>VatOnGrossPremiumAmount</t>
+  </si>
+  <si>
+    <t>NetGrossPremiumAmount</t>
+  </si>
+  <si>
+    <t>BasePremiumAmount</t>
+  </si>
+  <si>
+    <t>VatOnBasePremiumAmount</t>
+  </si>
+  <si>
+    <t>NetBasePremiumAmount</t>
+  </si>
+  <si>
+    <t>TotalDiscountAmount</t>
+  </si>
+  <si>
+    <t>ExpiryDate</t>
+  </si>
+  <si>
+    <t>QuotationReferenceNumber</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Vat On Gross Premium Amount.TO"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Net Gross Premium Amount.TOOLT"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Base Premium Amount.TOOLTIP"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Vat On Base Premium Amount.TOO"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Net Base Premium Amount.TOOLTI"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Total Discount Amount.TOOLTIP"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Quotation Reference No.TOOLTIP"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>Murabah_AppDataEntryQuotationInfo</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="basePremiumAmount"]')</t>
+  </si>
+  <si>
+    <t>BasePremiumAmount_ViewList</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="vatOnBasePremiumAmount"]')</t>
+  </si>
+  <si>
+    <t>VatOnBasePremiumAmount_ViewList</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="netBasePremiumAmount"]')</t>
+  </si>
+  <si>
+    <t>NetBasePremiumAmount_ViewList</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="quoteReferenceNo"]')</t>
+  </si>
+  <si>
+    <t>QuotationReferenceNumber_ViewList</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="recStatus"]')</t>
+  </si>
+  <si>
+    <t>Status_ViewList</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-name="quotationExpectedDate"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-icon="pi pi-search"]')</t>
+  </si>
+  <si>
+    <t>list_view_search_input</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2155,6 +2430,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2184,7 +2465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2201,6 +2482,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2578,10 +2860,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2825,10 +3107,10 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>649</v>
+        <v>701</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2845,6 +3127,14 @@
       </c>
       <c r="B32" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -2855,22 +3145,22 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="39.28515625" customWidth="1"/>
-    <col min="2" max="2" width="69.7109375" customWidth="1"/>
+    <col min="2" max="2" width="187.42578125" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="7" customFormat="1">
       <c r="A1" s="8" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -2878,7 +3168,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>168</v>
@@ -2897,7 +3187,7 @@
         <v>396</v>
       </c>
       <c r="B4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2918,34 +3208,34 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="B7" t="s">
         <v>653</v>
-      </c>
-      <c r="B7" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B8" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B9" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B10" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2966,7 +3256,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B13" t="s">
         <v>322</v>
@@ -2982,10 +3272,34 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B15" t="s">
-        <v>663</v>
+        <v>662</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>599</v>
+      </c>
+      <c r="B16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>700</v>
+      </c>
+      <c r="B17" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2996,10 +3310,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3018,7 +3332,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="9" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>602</v>
@@ -3026,42 +3340,42 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="9" t="s">
+        <v>665</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>666</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="9" t="s">
+        <v>667</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>668</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="26.25">
       <c r="A5" s="9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="9" t="s">
+        <v>670</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>671</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="9" t="s">
+        <v>672</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>673</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3069,23 +3383,23 @@
         <v>338</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>675</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="9" t="s">
+        <v>676</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>677</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="26.25">
@@ -3093,7 +3407,7 @@
         <v>344</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3101,15 +3415,15 @@
         <v>340</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>680</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3126,6 +3440,524 @@
       </c>
       <c r="B15" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="B16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="179.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>745</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>702</v>
+      </c>
+      <c r="B2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>704</v>
+      </c>
+      <c r="B3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>705</v>
+      </c>
+      <c r="B4" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>707</v>
+      </c>
+      <c r="B5" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>709</v>
+      </c>
+      <c r="B6" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>711</v>
+      </c>
+      <c r="B7" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B8" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>714</v>
+      </c>
+      <c r="B9" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>715</v>
+      </c>
+      <c r="B10" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>716</v>
+      </c>
+      <c r="B11" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>717</v>
+      </c>
+      <c r="B12" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>718</v>
+      </c>
+      <c r="B13" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>719</v>
+      </c>
+      <c r="B14" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>720</v>
+      </c>
+      <c r="B15" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>721</v>
+      </c>
+      <c r="B16" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>568</v>
+      </c>
+      <c r="B17" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>722</v>
+      </c>
+      <c r="B18" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>733</v>
+      </c>
+      <c r="B19" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>736</v>
+      </c>
+      <c r="B20" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>738</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>740</v>
+      </c>
+      <c r="B22" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>742</v>
+      </c>
+      <c r="B23" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>744</v>
+      </c>
+      <c r="B24" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>639</v>
+      </c>
+      <c r="B25" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="181" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>776</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>746</v>
+      </c>
+      <c r="B2" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>568</v>
+      </c>
+      <c r="B3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>748</v>
+      </c>
+      <c r="B4" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>750</v>
+      </c>
+      <c r="B5" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>757</v>
+      </c>
+      <c r="B6" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>760</v>
+      </c>
+      <c r="B7" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>761</v>
+      </c>
+      <c r="B8" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>762</v>
+      </c>
+      <c r="B9" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>763</v>
+      </c>
+      <c r="B10" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>764</v>
+      </c>
+      <c r="B11" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>765</v>
+      </c>
+      <c r="B12" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>766</v>
+      </c>
+      <c r="B13" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>767</v>
+      </c>
+      <c r="B14" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>768</v>
+      </c>
+      <c r="B15" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>751</v>
+      </c>
+      <c r="B16" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>753</v>
+      </c>
+      <c r="B17" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>754</v>
+      </c>
+      <c r="B18" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>345</v>
+      </c>
+      <c r="B20" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>396</v>
+      </c>
+      <c r="B21" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>778</v>
+      </c>
+      <c r="B22" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>780</v>
+      </c>
+      <c r="B23" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>782</v>
+      </c>
+      <c r="B24" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>784</v>
+      </c>
+      <c r="B25" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>786</v>
+      </c>
+      <c r="B26" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>711</v>
+      </c>
+      <c r="B27" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>483</v>
+      </c>
+      <c r="B28" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>425</v>
+      </c>
+      <c r="B29" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>694</v>
+      </c>
+      <c r="B30" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>426</v>
+      </c>
+      <c r="B31" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>427</v>
+      </c>
+      <c r="B32" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>428</v>
+      </c>
+      <c r="B33" t="s">
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -3137,8 +3969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4513,8 +5345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B26" sqref="A26:B26"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4925,58 +5757,58 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B51" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B52" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B53" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B54" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B55" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B56" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B57" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
   </sheetData>

--- a/Ijarah_Arul/TestData/IjaraJSPaths.xlsx
+++ b/Ijarah_Arul/TestData/IjaraJSPaths.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="21075" windowHeight="8265" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" firstSheet="16" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,18 @@
     <sheet name="Underwriter" sheetId="12" r:id="rId12"/>
     <sheet name="Murabah_InsuranceInfo" sheetId="13" r:id="rId13"/>
     <sheet name="Murabah_QuotationInfo" sheetId="14" r:id="rId14"/>
+    <sheet name="Murabha_FacilityDetails" sheetId="15" r:id="rId15"/>
+    <sheet name="Murabha_CustomerPersonalDetails" sheetId="16" r:id="rId16"/>
+    <sheet name="Murabha_Offering_OfferDetails" sheetId="17" r:id="rId17"/>
+    <sheet name="Murabha_EmploymentDetails" sheetId="18" r:id="rId18"/>
+    <sheet name="Tawarraq_EmploymentDetails" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="1497">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -2397,13 +2402,2137 @@
   </si>
   <si>
     <t>list_view_search_input</t>
+  </si>
+  <si>
+    <t>Murabah_AppDataEntryFacilityDetails</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.CLASSIFICATION.TOOLTIP"]+Ion-select')</t>
+  </si>
+  <si>
+    <t>Classification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.PRODUCT.TOOLTIP"]+Ion-select')</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.MODULE.FACILITY_DETAILS.SC"]+Ion-select')</t>
+  </si>
+  <si>
+    <t>Scheme</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Program Code.TOOLTIP"]+Ion-select')</t>
+  </si>
+  <si>
+    <t>ProgramCode</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.MODULE.FACILITY_DETAILS.FA"]+Ion-select')</t>
+  </si>
+  <si>
+    <t>FacilityType</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.MODULE.FACILITY_DETAILS.CG"]+Ion-select')</t>
+  </si>
+  <si>
+    <t>ServicingBranch</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Pricing/Interest Indicator.TOO"]+Ion-select')</t>
+  </si>
+  <si>
+    <t>PricingInterestIndicator</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Future Rental Flag.TOOLTIP"]+Ion-select')</t>
+  </si>
+  <si>
+    <t>FutureRentalFlag</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-label[ng-reflect-text="SCR.MODULE.FACILITY_DETAILS.CG"]+Ion-select')[1]</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.MODULE.FACILITY_DETAILS.PR"]').parentElement.nextElementSibling.querySelector('input')</t>
+  </si>
+  <si>
+    <t>DeclaredPropertyAssetValue</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.MODULE.FACILITY_DETAILS.DO"]').parentElement.nextElementSibling.querySelector('input')</t>
+  </si>
+  <si>
+    <t>DeclaredDownPaymentAmount</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.MODULE.FACILITY_DETAILS.AM"]').parentElement.nextElementSibling.querySelector('input')</t>
+  </si>
+  <si>
+    <t>RequestedAmount</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.MODULE.FACILITY_DETAILS.TE"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>LoanTenure</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Moratorium Period.TOOLTIP"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>MoratoriumPeriod</t>
+  </si>
+  <si>
+    <t>document.querySelector("#seg6")</t>
+  </si>
+  <si>
+    <t>FacilityInfo</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="product"]')</t>
+  </si>
+  <si>
+    <t>ClassificationField_ViewList</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="subProductCode"]')</t>
+  </si>
+  <si>
+    <t>ProductField_ViewList</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="amountRequested"]')</t>
+  </si>
+  <si>
+    <t>RequestedAmount_ViewList</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="loanTenure"]')</t>
+  </si>
+  <si>
+    <t>TenureField_ViewList</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[label="Submit"]')</t>
+  </si>
+  <si>
+    <t>SubmitButton</t>
+  </si>
+  <si>
+    <t>document.getElementsByClassName('ng-star-inserted md ion-activatable hydrated')[0]</t>
+  </si>
+  <si>
+    <t>Ok_SubmitConfirmation</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('button[label="Submit"]')[1]</t>
+  </si>
+  <si>
+    <t>SubmitButton_SubmitConfirmation</t>
+  </si>
+  <si>
+    <t>customer_details_tab</t>
+  </si>
+  <si>
+    <t>customerDetails_AddButton</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-plus"]')</t>
+  </si>
+  <si>
+    <t>application_type_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.APPLICANT.TYPE.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>customer_details_type_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="CUSTOMERDETAILS_CUSTOMER_TYPE."]+ion-select')</t>
+  </si>
+  <si>
+    <t>title_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="CUSTOMERDETAILSISLAMIC_SALUTAT"]+ion-select')</t>
+  </si>
+  <si>
+    <t>first_name_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerFirstName"] input')</t>
+  </si>
+  <si>
+    <t>middle_name_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerMiddleName"] input')</t>
+  </si>
+  <si>
+    <t>last_name_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerLastName"] input')</t>
+  </si>
+  <si>
+    <t>family_name_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerThirdName"] input')</t>
+  </si>
+  <si>
+    <t>first_name_arabic_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerFirstNameInOtherLang"] input')</t>
+  </si>
+  <si>
+    <t>middle_name_arabic_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerMiddleNameInOtherLang"] input')</t>
+  </si>
+  <si>
+    <t>last_name_arabic_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerLastNameInOtherLang"] input')</t>
+  </si>
+  <si>
+    <t>family_name_arabic_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerNameInOtherLang"] input')</t>
+  </si>
+  <si>
+    <t>date_of_birth_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-title="LEAD_DETAILS.DOB"] input')</t>
+  </si>
+  <si>
+    <t>age_get_value</t>
+  </si>
+  <si>
+    <t>gender_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.GENDER.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>maritail_status_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.MARITAL_STATUS.TO"]+ion-select')</t>
+  </si>
+  <si>
+    <t>education_level_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.EDUCATION_LEVEL.T"]+ion-select')</t>
+  </si>
+  <si>
+    <t>nationality_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.NATIONALITY.TOOLT"]+ion-select')</t>
+  </si>
+  <si>
+    <t>customer_residential_status_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="CUSTOMERDETAILS_RESIDENTIAL_ST"]+ion-select')</t>
+  </si>
+  <si>
+    <t>languages_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.LANGUAGE.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>client_category_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[ng-reflect-name="clientCategory"] ion-select')</t>
+  </si>
+  <si>
+    <t>consent_obtained_for_credit_bureau_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Consent Obtained for Credit Bu"]+ion-select')</t>
+  </si>
+  <si>
+    <t>no_of_dependents_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.NO_OF_DEPENDENTS."]+ion-input input')</t>
+  </si>
+  <si>
+    <t>remarks_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="remarks"] input')</t>
+  </si>
+  <si>
+    <t>status_toggle_button</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-radio-button[id="recStatus"] ion-toggle')</t>
+  </si>
+  <si>
+    <t>get_record_status</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-radio-button[id="recStatus"] ion-toggle').getAttribute('aria-checked')</t>
+  </si>
+  <si>
+    <t>list_view_record_status</t>
+  </si>
+  <si>
+    <t>document.querySelector('td[ng-reflect-ng-switch="badge"] span&gt;span').innerText</t>
+  </si>
+  <si>
+    <t>blacklisted_toggle</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-radio-button[ng-reflect-title="SCR.BLACKLISTED"] ion-toggle')</t>
+  </si>
+  <si>
+    <t>date_highlighted_button</t>
+  </si>
+  <si>
+    <t>document.querySelector('span[tabindex="0"]')</t>
+  </si>
+  <si>
+    <t>first_name_input_field_level_validation</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerFirstName"]+div ion-badge').innerText</t>
+  </si>
+  <si>
+    <t>customer_details_list_view_edit_button</t>
+  </si>
+  <si>
+    <t>customer_details_list_view_first_name</t>
+  </si>
+  <si>
+    <t>document.querySelector('td[ng-reflect-ng-switch="string"] p-celleditor[class="p-element ng-star-inserted"] span').innerText</t>
+  </si>
+  <si>
+    <t>customer_details_list_view_search_result</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-grid p-paginator[ng-reflect-rows="5"] span[class="p-paginator-current ng-star-inserted"]').innerText</t>
+  </si>
+  <si>
+    <t>customer_details_list_view_search_button</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-search"]')</t>
+  </si>
+  <si>
+    <t>customer_details_list_view_search_input</t>
+  </si>
+  <si>
+    <t>customer_details_export_button</t>
+  </si>
+  <si>
+    <t>document.querySelector('p-dropdown[placeholder="Export"] span[class$= "p-placeholder ng-star-inserted"]')</t>
+  </si>
+  <si>
+    <t>customer_details_excel_export_option</t>
+  </si>
+  <si>
+    <t>document.querySelector('p-dropdownitem[ng-reflect-label="XLS"] span')</t>
+  </si>
+  <si>
+    <t>customer_details_pdf_export_option</t>
+  </si>
+  <si>
+    <t>document.querySelector('p-dropdownitem[ng-reflect-label="PDF"] span')</t>
+  </si>
+  <si>
+    <t>customer_details_back_button_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-title[class$="ion-color-dark md title-default hydrated"]').innerText</t>
+  </si>
+  <si>
+    <t>customer_details_list_view_record</t>
+  </si>
+  <si>
+    <t>document.querySelector('p-table[ng-reflect-data-key="id"] thead[class="p-datatable-thead"]').innerText</t>
+  </si>
+  <si>
+    <t>document.querySelector('tbody td[ng-reflect-ng-switch="string"]')</t>
+  </si>
+  <si>
+    <t>Murabha_AppDataCheck_CustomerPersonalDetails</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.AGE.TOOLTIP"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>FirstName_ViewList</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="customerFirstName"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="customerMiddleName"]')</t>
+  </si>
+  <si>
+    <t>MiddleName_ViewList</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="customerLastName"]')</t>
+  </si>
+  <si>
+    <t>LastName_ViewList</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="customerThirdName"]')</t>
+  </si>
+  <si>
+    <t>FamilyName_ViewList</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="indCorpFlag"]')</t>
+  </si>
+  <si>
+    <t>CustomerType_ViewList</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="guarCoapFlag"]')</t>
+  </si>
+  <si>
+    <t>ApplicantType_ViewList</t>
+  </si>
+  <si>
+    <t>Offering_OfferDetails_FieldName</t>
+  </si>
+  <si>
+    <t>offerDetailsTab</t>
+  </si>
+  <si>
+    <t>offerDetailsTabPencilIcon</t>
+  </si>
+  <si>
+    <t>offerDetailsSection</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-item[class*="sectiontitles"] ion-title')[0]</t>
+  </si>
+  <si>
+    <t>financeDetailsSection</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-item[class*="sectiontitles"] ion-label')[0]</t>
+  </si>
+  <si>
+    <t>creditRiskFactorSection</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-item[class*="sectiontitles"] ion-title')[1]</t>
+  </si>
+  <si>
+    <t>creditScoreDetailsSection</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-item[class*="sectiontitles"] ion-title')[2]</t>
+  </si>
+  <si>
+    <t>eligibilityDetailsSection</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-item[class*="sectiontitles"] ion-title')[3]</t>
+  </si>
+  <si>
+    <t>interestRateStructureSection</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-item[class*="sectiontitles"] ion-title')[4]</t>
+  </si>
+  <si>
+    <t>installmentsSection</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-item[class*="sectiontitles"] ion-title')[5]</t>
+  </si>
+  <si>
+    <t>appealRequestSection</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-item[class*="sectiontitles"] ion-label')[1]</t>
+  </si>
+  <si>
+    <t>offerDetails_productLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="productCode"] ion-label')</t>
+  </si>
+  <si>
+    <t>offerDetails_productInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="productCode"] input')</t>
+  </si>
+  <si>
+    <t>offerDetails_subProductLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="subProductCode"] ion-label')</t>
+  </si>
+  <si>
+    <t>offerDetails_subProductInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="subProductCode"] input')</t>
+  </si>
+  <si>
+    <t>offerDetails_schemeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="scheme"] ion-label')</t>
+  </si>
+  <si>
+    <t>offerDetails_schemeInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="scheme"] input')</t>
+  </si>
+  <si>
+    <t>offerDetails_pricingIndicatorLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="pricingIndicator"] ion-label')</t>
+  </si>
+  <si>
+    <t>offerDetails_pricingIndicatorInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="pricingIndicator"] input')</t>
+  </si>
+  <si>
+    <t>offerDetails_offeredAmountLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="offeredAmt"] ion-label')</t>
+  </si>
+  <si>
+    <t>offerDetails_offeredAmountInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="offeredAmt"] input')</t>
+  </si>
+  <si>
+    <t>offerDetails_tenureLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="tenure"] ion-label')</t>
+  </si>
+  <si>
+    <t>offerDetails_tenureInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="tenure"] input')</t>
+  </si>
+  <si>
+    <t>offerDetails_natureOfFinanceLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="natureOfFinance"] ion-label')</t>
+  </si>
+  <si>
+    <t>offerDetails_natureOfFinanceInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="natureOfFinance"] input')</t>
+  </si>
+  <si>
+    <t>offerDetails_currencyLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="currency"] ion-label')</t>
+  </si>
+  <si>
+    <t>offerDetails_currencyInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="currency"] input')</t>
+  </si>
+  <si>
+    <t>offerDetails_eligibleIncomeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="totalMonthlyIncome"] ion-label')</t>
+  </si>
+  <si>
+    <t>offerDetails_eligibleIncomeInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="totalMonthlyIncome"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_totalObligationsLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="currentObligations"] ion-label')</t>
+  </si>
+  <si>
+    <t>financeDetails_totalObligationsInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="currentObligations"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_totalnetIncomeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="netIncome"] ion-label')</t>
+  </si>
+  <si>
+    <t>financeDetails_totalnetIncomeInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="netIncome"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_totalIncomeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="totalIncome"] ion-label')</t>
+  </si>
+  <si>
+    <t>financeDetails_totalIncomeInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="totalIncome"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_totalFeesLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="chargeAmount"] ion-label')</t>
+  </si>
+  <si>
+    <t>financeDetails_totalFeesInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="chargeAmount"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_totalDownPaymentAmtLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Total Down Payment Amount"] ion-label')</t>
+  </si>
+  <si>
+    <t>financeDetails_totalDownPaymentAmtInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Total Down Payment Amount"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_totalContractValueLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="totalcontractvalue"] ion-label')</t>
+  </si>
+  <si>
+    <t>financeDetails_totalContractValueInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="totalcontractvalue"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_noOfInstallmentsLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="numberOfInstalments"] ion-label')</t>
+  </si>
+  <si>
+    <t>financeDetails_noOfInstallmentsInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="numberOfInstalments"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_lastInstallmentLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="instalmentAmt"] ion-label')</t>
+  </si>
+  <si>
+    <t>financeDetails_lastInstallmentInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="instalmentAmt"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_IRRLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="internalRateOfReturn"] ion-label')</t>
+  </si>
+  <si>
+    <t>financeDetails_IRRInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="internalRateOfReturn"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_InstallmentFrequencyLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="repayFrequency"] ion-label')</t>
+  </si>
+  <si>
+    <t>financeDetails_InstallmentFrequencyInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="repayFrequency"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_APRLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="effectiveApprovedAmt"] ion-label')</t>
+  </si>
+  <si>
+    <t>financeDetails_APRInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="effectiveApprovedAmt"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_AmountRequestedLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="requestedAmount"] ion-label')</t>
+  </si>
+  <si>
+    <t>financeDetails_AmountRequestedInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="requestedAmount"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_AdditionalDownPaymentLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="aditionalDownpaymentAmt"] ion-label')</t>
+  </si>
+  <si>
+    <t>financeDetails_AdditionalDownPaymentInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="aditionalDownpaymentAmt"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_downPaymentPercentLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Down Payment Percentage"] ion-label')</t>
+  </si>
+  <si>
+    <t>financeDetails_downPaymentPercentInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Down Payment Percentage"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_tenureLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="loanTenure"] ion-label')</t>
+  </si>
+  <si>
+    <t>financeDetails_tenureInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="loanTenure"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_profitAmtLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="interestComponent"] ion-label')</t>
+  </si>
+  <si>
+    <t>financeDetails_profitAmtInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="interestComponent"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_downPaymentAmtLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="downPaymentAmount"] ion-label')</t>
+  </si>
+  <si>
+    <t>financeDetails_downPaymentAmtInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="downPaymentAmount"] input')</t>
+  </si>
+  <si>
+    <t>creditRisk_TotalScoreField</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="applScore"] span')</t>
+  </si>
+  <si>
+    <t>creditRisk_RiskLevelField</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="riskCatgId"] span')</t>
+  </si>
+  <si>
+    <t>creditScore_SerialNoField</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="description"] span')</t>
+  </si>
+  <si>
+    <t>creditScore_CustomerNameField</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="customerId"] span')</t>
+  </si>
+  <si>
+    <t>creditScore_CreditBureauScoreField</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="score"] span')</t>
+  </si>
+  <si>
+    <t>eligibilityDetails_EligibilityTypeField</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="eligibilityType"] span')</t>
+  </si>
+  <si>
+    <t>eligibilityDetails_EligibilityAmtField</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="eligibilityAmt"] span')</t>
+  </si>
+  <si>
+    <t>eligibilityDetails_EligibilityPercentField</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="eligiblePercent"] span')</t>
+  </si>
+  <si>
+    <t>eligibilityDetails_CurrencyField</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="currency"] span')</t>
+  </si>
+  <si>
+    <t>eligibilityDetails_ActualPercentField</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="actualPercent"] span')</t>
+  </si>
+  <si>
+    <t>eligibilityDetails_DeviationLevelField</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="deviationLvl"] span')</t>
+  </si>
+  <si>
+    <t>Murabha_EmploymentDetails_FieldName</t>
+  </si>
+  <si>
+    <t>Customer Financial Tab</t>
+  </si>
+  <si>
+    <t>document.querySelector("#seg4")</t>
+  </si>
+  <si>
+    <t>Customer Personal Information Edit button</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text="Edit"]')</t>
+  </si>
+  <si>
+    <t>Add Button</t>
+  </si>
+  <si>
+    <t>document.getElementsByClassName("p-element p-button-sm p-button-info p-button-raised grid-Addbtn p-button p-component p-button-icon-only ng-star-inserted")[0]</t>
+  </si>
+  <si>
+    <t>Primary Employment</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Primary Employment"]').parentElement.nextElementSibling.querySelector('ion-toggle')</t>
+  </si>
+  <si>
+    <t>Employment Period Filed</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.EMP_NATURE_PERIOD.TOOLTIP"]').innerText</t>
+  </si>
+  <si>
+    <t>Employment Period Dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.EMP_NATURE_PERIOD.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>Nature of Employment Filed</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.EMP_NATURE.TOOLTIP"]').innerText</t>
+  </si>
+  <si>
+    <t>Nature of Employment Dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.EMP_NATURE.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>Company Type Field</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.EMP_COMPANY_TYPE.TOOLTIP"]').innerText</t>
+  </si>
+  <si>
+    <t>Company Type Dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.EMP_COMPANY_TYPE.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>Profession Field</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.EMP_PROFESSION_CODE.TOOLT"]').innerText</t>
+  </si>
+  <si>
+    <t>Profession Dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.EMP_PROFESSION_CODE.TOOLT"]+ion-select')</t>
+  </si>
+  <si>
+    <t>Profession Type Field</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.EMP_PROFESSION_TYPE.TOOLT"]').innerText</t>
+  </si>
+  <si>
+    <t>Profession Type Dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.EMP_PROFESSION_TYPE.TOOLT"]+ion-select')</t>
+  </si>
+  <si>
+    <t>Statutory Authority Field</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.EMP_STATUATORY_AUTHORITY."]').innerText</t>
+  </si>
+  <si>
+    <t>Statutory Authority Dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.EMP_STATUATORY_AUTHORITY."]+ion-select')</t>
+  </si>
+  <si>
+    <t>Employer Name If Others</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.EMP_NAME_ANY.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>Employer Name If Others textbox</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.EMP_NAME_ANY.TOOLTIP"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>Employee ID Field</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.EMP_ID.TOOLTIP"]').innerText</t>
+  </si>
+  <si>
+    <t>Employee ID textbox</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.EMP_ID.TOOLTIP"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>Date of joining Field</t>
+  </si>
+  <si>
+    <t>document.querySelector('label[ng-reflect-text="FORM.DATE_OF_JOINING.TOOLTIP"]').innerText</t>
+  </si>
+  <si>
+    <t>Date of joining  Date TextBox</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-title-tool-tip="FORM.DATE_OF_JOINING.TOOLTIP"] input')</t>
+  </si>
+  <si>
+    <t>Department Field</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.DEPARTMENT.TOOLTIP"]').innerText</t>
+  </si>
+  <si>
+    <t>Department Dropdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="FORM.DEPARTMENT.TOOLTIP"]+ion-select')
+</t>
+  </si>
+  <si>
+    <t>Designation Field</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.DESIGNATION.TOOLTIP"]').innerText</t>
+  </si>
+  <si>
+    <t>Designation Dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.DESIGNATION.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>EmploymentType Field</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.EMPLOYMENT_TYPE.TOOLTIP"]').innerText</t>
+  </si>
+  <si>
+    <t>EmploymentType Dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.EMPLOYMENT_TYPE.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>Direct Manager Contact number exetension Field</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.CONTACT_EXTENSION_NUMBER."]').innerText</t>
+  </si>
+  <si>
+    <t>Direct Manager Contact number exetension textbox</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.CONTACT_EXTENSION_NUMBER."]+ion-input input')</t>
+  </si>
+  <si>
+    <t>Direct Manager Telephone Field</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.DIRECT_MNGR_TEL.TOOLTIP"]').innerText</t>
+  </si>
+  <si>
+    <t>Direct Manager Telephone textbox</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.DIRECT_MNGR_TEL.TOOLTIP"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>Income Payment Field</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Income Paymode.TOOLTIP"]').innerText</t>
+  </si>
+  <si>
+    <t>Income Payment Dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Income Paymode.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>Employer Phone Extension Field</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.EMPLOYER_PHONE_EXTENSION."]').innerText</t>
+  </si>
+  <si>
+    <t>Employer Phone Extension textbox</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.EMPLOYER_PHONE_EXTENSION."]+ion-input input')</t>
+  </si>
+  <si>
+    <t>State Field</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="State.TOOLTIP"]').innerText</t>
+  </si>
+  <si>
+    <t>State Dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="State.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>City Field</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="City.TOOLTIP"]').innerText</t>
+  </si>
+  <si>
+    <t>City Dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="City.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>Pincode Field</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Pincode.TOOLTIP"]').innerText</t>
+  </si>
+  <si>
+    <t>Pincode Dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Pincode.TOOLTIP"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>Sector Field</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.SECTOR.TOOLTIP"]').innerText</t>
+  </si>
+  <si>
+    <t>Sector Dropdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="FORM.SECTOR.TOOLTIP"]+ion-select')
+</t>
+  </si>
+  <si>
+    <t>Industry Sub Sector Field</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.INDUSTRY_SUB_SECTOR.TOOLT"]').innerText</t>
+  </si>
+  <si>
+    <t>Industry Sub Sector Dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.INDUSTRY_SUB_SECTOR.TOOLT"]+ion-select')</t>
+  </si>
+  <si>
+    <t>No of Partners Field</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.NOOFPARTNERS.TOOLTIP"]').innerText</t>
+  </si>
+  <si>
+    <t>No of Partners Dropdown</t>
+  </si>
+  <si>
+    <t>Nature of Business Field</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.BUSINESS_ACTIVITY.TOOLTIP"]').innerText</t>
+  </si>
+  <si>
+    <t>Nature of Business Dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.BUSINESS_ACTIVITY.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>Registered Business Name field</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.REGISTEREDBUSINAME.TOOLTI"]').innerText</t>
+  </si>
+  <si>
+    <t>Registered Business Name textbox</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.REGISTEREDBUSINAME.TOOLTI"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>Registered Business Number Field</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.REGISTEREDBUSINUMBER.TOOL"]').innerText</t>
+  </si>
+  <si>
+    <t>Registered Business Number texbox</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.REGISTEREDBUSINUMBER.TOOL"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>Business Registration Date Field</t>
+  </si>
+  <si>
+    <t>document.querySelector('label[ng-reflect-text="FORM.REGISTERED_BUSI_DATE.TOOL"]').innerText</t>
+  </si>
+  <si>
+    <t>Business Registration Date textbox</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-title-tool-tip="FORM.REGISTERED_BUSI_DATE.TOOL"] input')</t>
+  </si>
+  <si>
+    <t>Office Premises Type Field</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.OFFICE_PREMISES_TYPE.TOOL"]').innerText</t>
+  </si>
+  <si>
+    <t>Office Premises Type Dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.OFFICE_PREMISES_TYPE.TOOL"]+ion-select')</t>
+  </si>
+  <si>
+    <t>Share Holder Percentage Mandatory</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.SHARE_HOLDER_PERCENTAGE.T"]').innerText</t>
+  </si>
+  <si>
+    <t>Share Holder Percentage Dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.SHARE_HOLDER_PERCENTAGE.T"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>No of Employees Field</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.NOOF_EMPLOYEES.TOOLTIP"]').innerText</t>
+  </si>
+  <si>
+    <t>No of Employees Dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.NOOF_EMPLOYEES.TOOLTIP"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>Total Experience Years Field</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.TOTAL_EXPERIENCE.TOOLTIP"]').innerText</t>
+  </si>
+  <si>
+    <t>Total Experience Years Dropdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-label[ng-reflect-text="FORM.TOTAL_EXPERIENCE.TOOLTIP"]+ion-input input')
+</t>
+  </si>
+  <si>
+    <t>Experience at Current Employment Field</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.CURRENT_EXPERIENCE.TOOLTI"]').innerText</t>
+  </si>
+  <si>
+    <t>Experience at Current Employment Dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.CURRENT_EXPERIENCE.TOOLTI"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>Direct Manager Name Field</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Direct Manager Name.TOOLTIP"]').innerText</t>
+  </si>
+  <si>
+    <t>Direct Manager Name Dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Direct Manager Name.TOOLTIP"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>Employer City code Field</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.EMPLOYER_CITY_CODE.TOOLTI"]').innerText</t>
+  </si>
+  <si>
+    <t>Employer City code Dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.EMPLOYER_CITY_CODE.TOOLTI"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>Retirement Age Years Filed</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.RETIREMENT_AGE.TOOLTIP"]').innerText</t>
+  </si>
+  <si>
+    <t>Retirement Age Years Dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.RETIREMENT_AGE.TOOLTIP"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>Remarks Field Field</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.REMARKS.TOOLTIP"]').innerText</t>
+  </si>
+  <si>
+    <t>Remarks Field Dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.REMARKS.TOOLTIP"]+ion-textarea textarea')</t>
+  </si>
+  <si>
+    <t>NatureOfEmployment_ViewList</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="employmentTypeDesc"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="employerName"]')</t>
+  </si>
+  <si>
+    <t>EmployerName_ViewList</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="employmentStatusDesc"]')</t>
+  </si>
+  <si>
+    <t>EmploymentStatus_ViewList</t>
+  </si>
+  <si>
+    <t>EmploymentDetails_FieldName</t>
+  </si>
+  <si>
+    <t>SalariedEmpDetails_eyeBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-arrow-left"]').parentElement.parentElement.parentElement.querySelector('button[icon="pi pi-eye"]')</t>
+  </si>
+  <si>
+    <t>businessEmpDetails_eyeBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-arrow-left"]').parentElement.parentElement.parentElement.querySelectorAll('button[icon="pi pi-eye"]')[1]</t>
+  </si>
+  <si>
+    <t>companyFirmEmpDetails_eyeBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-arrow-left"]').parentElement.parentElement.parentElement.querySelectorAll('button[icon="pi pi-eye"]')[2]</t>
+  </si>
+  <si>
+    <t>pensionerEmpDetails_eyeBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-arrow-left"]').parentElement.parentElement.parentElement.querySelectorAll('button[icon="pi pi-eye"]')[3]</t>
+  </si>
+  <si>
+    <t>selfEmployed_eyeBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-arrow-left"]').parentElement.parentElement.parentElement.querySelectorAll('button[icon="pi pi-eye"]')[4]</t>
+  </si>
+  <si>
+    <t>EmpDetailsSectionNextPageBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[class="p-ripple p-element p-paginator-next p-paginator-element p-link"]')</t>
+  </si>
+  <si>
+    <t>selfEmployedProfessional_eyeBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-arrow-left"]').parentElement.parentElement.parentElement.querySelectorAll('button[icon="pi pi-eye"]')[0]</t>
+  </si>
+  <si>
+    <t>customerEmploymentBackBtn</t>
+  </si>
+  <si>
+    <t>primaryEmployment</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="isPrimaryEmployment"]')</t>
+  </si>
+  <si>
+    <t>primaryEmploymentLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="isPrimaryEmployment"] ion-label')</t>
+  </si>
+  <si>
+    <t>primaryEmploymentToggleBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="isPrimaryEmployment"] ion-toggle')</t>
+  </si>
+  <si>
+    <t>employmentPeriod</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employmentStatus"]')</t>
+  </si>
+  <si>
+    <t>employmentPeriodLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employmentStatus"] ion-label')</t>
+  </si>
+  <si>
+    <t>employmentPeriodDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employmentStatus"] ion-select')</t>
+  </si>
+  <si>
+    <t>natureOfEmployment</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employmentType"]')</t>
+  </si>
+  <si>
+    <t>natureOfEmploymentLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employmentType"] ion-label')</t>
+  </si>
+  <si>
+    <t>natureOfEmploymentDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employmentType"] ion-select')</t>
+  </si>
+  <si>
+    <t>companyType</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="companyType"]')</t>
+  </si>
+  <si>
+    <t>companyTypeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="companyType"] ion-label')</t>
+  </si>
+  <si>
+    <t>companyTypeDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="companyType"] ion-select')</t>
+  </si>
+  <si>
+    <t>profession</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="typeOfProfessionCode"]')</t>
+  </si>
+  <si>
+    <t>professionLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="typeOfProfessionCode"] ion-label')</t>
+  </si>
+  <si>
+    <t>professionDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="typeOfProfessionCode"] ion-select')</t>
+  </si>
+  <si>
+    <t>professionType</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="typeOfProfession"]')</t>
+  </si>
+  <si>
+    <t>professionTypeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="typeOfProfession"] ion-label')</t>
+  </si>
+  <si>
+    <t>professionTypeDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="typeOfProfession"] ion-select')</t>
+  </si>
+  <si>
+    <t>statutoryAuthority</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="registeredStatutoryAuthority"]')</t>
+  </si>
+  <si>
+    <t>statutoryAuthorityLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="registeredStatutoryAuthority"] ion-label')</t>
+  </si>
+  <si>
+    <t>statutoryAuthorityDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="registeredStatutoryAuthority"] ion-select')</t>
+  </si>
+  <si>
+    <t>employerName</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="employerName"]')</t>
+  </si>
+  <si>
+    <t>employerNameLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="employerName"] ion-label')</t>
+  </si>
+  <si>
+    <t>employerNameDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employerName"] ion-select')</t>
+  </si>
+  <si>
+    <t>employerNameOthers</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="employerName"]')</t>
+  </si>
+  <si>
+    <t>employerNameOthersLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="employerName"] ion-label')</t>
+  </si>
+  <si>
+    <t>employerNameOthersInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="employerName"] ion-input')</t>
+  </si>
+  <si>
+    <t>employeeID</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employeeNumber"]')</t>
+  </si>
+  <si>
+    <t>employeeIDLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employeeNumber"] ion-label')</t>
+  </si>
+  <si>
+    <t>employeeIDInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employeeNumber"] ion-input')</t>
+  </si>
+  <si>
+    <t>dateOfJoining</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dateOfJoining"]')</t>
+  </si>
+  <si>
+    <t>dateOfJoiningLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dateOfJoining"] label')</t>
+  </si>
+  <si>
+    <t>dateOfJoiningCalender</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dateOfJoining"] p-calendar')</t>
+  </si>
+  <si>
+    <t>employmentEndDate</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employmentEndDate"]')</t>
+  </si>
+  <si>
+    <t>employmentEndDateLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employmentEndDate"] label')</t>
+  </si>
+  <si>
+    <t>employmentEndDateCalender</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employmentEndDate"] p-calendar')</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="department"]')</t>
+  </si>
+  <si>
+    <t>departmentLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="department"] ion-label')</t>
+  </si>
+  <si>
+    <t>departmentDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="department"] ion-select')</t>
+  </si>
+  <si>
+    <t>designation</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="designation"]')</t>
+  </si>
+  <si>
+    <t>designationLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="designation"] ion-label')</t>
+  </si>
+  <si>
+    <t>designationDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="designation"] ion-select')</t>
+  </si>
+  <si>
+    <t>employmentType</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="isMilitaryOrCivil"]')</t>
+  </si>
+  <si>
+    <t>employmentTypeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="isMilitaryOrCivil"] ion-label')</t>
+  </si>
+  <si>
+    <t>employmentTypeDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="isMilitaryOrCivil"] ion-select')</t>
+  </si>
+  <si>
+    <t>directManagerContactNbr</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="contactNumberExtension"]')</t>
+  </si>
+  <si>
+    <t>directManagerContactNbrLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="contactNumberExtension"] ion-label')</t>
+  </si>
+  <si>
+    <t>directManagerContactNbrInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="contactNumberExtension"] input')</t>
+  </si>
+  <si>
+    <t>directManagerTelephone</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="contactNumber"]')</t>
+  </si>
+  <si>
+    <t>directManagerTelephoneLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="contactNumber"] ion-label')</t>
+  </si>
+  <si>
+    <t>directManagerTelephoneInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="contactNumber"] input')</t>
+  </si>
+  <si>
+    <t>incomePaymode</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="incomePaymode"]')</t>
+  </si>
+  <si>
+    <t>incomePaymodeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="incomePaymode"] ion-label')</t>
+  </si>
+  <si>
+    <t>incomePaymodeDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="incomePaymode"] ion-select')</t>
+  </si>
+  <si>
+    <t>employerPhoneExtension</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employerPhoneExtension"]')</t>
+  </si>
+  <si>
+    <t>employerPhoneExLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employerPhoneExtension"] ion-label')</t>
+  </si>
+  <si>
+    <t>employerPhoneExInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employerPhoneExtension"] input')</t>
+  </si>
+  <si>
+    <t>employerPhoneNbr</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employerPhoneNumber"]')</t>
+  </si>
+  <si>
+    <t>employerPhoneNbrLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employerPhoneNumber"] ion-label')</t>
+  </si>
+  <si>
+    <t>employerPhoneNbrInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employerPhoneNumber"] input')</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dynamicChararterField1"]')</t>
+  </si>
+  <si>
+    <t>stateLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dynamicChararterField1"] ion-label')</t>
+  </si>
+  <si>
+    <t>stateDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dynamicChararterField1"] ion-select')</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dynamicChararterField2"]')</t>
+  </si>
+  <si>
+    <t>cityLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dynamicChararterField2"] ion-label')</t>
+  </si>
+  <si>
+    <t>cityDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dynamicChararterField2"] ion-select')</t>
+  </si>
+  <si>
+    <t>pincode</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dynamicChararterField3"]')</t>
+  </si>
+  <si>
+    <t>pincodeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dynamicChararterField3"] ion-label')</t>
+  </si>
+  <si>
+    <t>pincodeInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dynamicChararterField3"] input')</t>
+  </si>
+  <si>
+    <t>totalExperience</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="totalExperience"]')</t>
+  </si>
+  <si>
+    <t>totalExperienceLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="totalExperience"] ion-label')</t>
+  </si>
+  <si>
+    <t>totalExperienceInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="totalExperience"] input')</t>
+  </si>
+  <si>
+    <t>sector</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="sectorEconomy"]')</t>
+  </si>
+  <si>
+    <t>sectorLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="sectorEconomy"] ion-label')</t>
+  </si>
+  <si>
+    <t>sectorDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="sectorEconomy"] ion-select')</t>
+  </si>
+  <si>
+    <t>subSector</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="subSector"]')</t>
+  </si>
+  <si>
+    <t>subSectorLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="subSector"] ion-label')</t>
+  </si>
+  <si>
+    <t>subSectorDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="subSector"] ion-select')</t>
+  </si>
+  <si>
+    <t>noOfPartners</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="numberOfPartners"]')</t>
+  </si>
+  <si>
+    <t>noOfPartnersLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="numberOfPartners"] ion-label')</t>
+  </si>
+  <si>
+    <t>noOfPartnersInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="numberOfPartners"] input')</t>
+  </si>
+  <si>
+    <t>natureOfBusiness</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="businessActivity"]')</t>
+  </si>
+  <si>
+    <t>natureOfBusinessLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="businessActivity"] ion-label')</t>
+  </si>
+  <si>
+    <t>natureOfBusinessDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="businessActivity"] ion-select')</t>
+  </si>
+  <si>
+    <t>regBusinessName</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="registeredBusinessName"]')</t>
+  </si>
+  <si>
+    <t>regBusinessNameLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="registeredBusinessName"] ion-label')</t>
+  </si>
+  <si>
+    <t>regBusinessNameInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="registeredBusinessName"] input')</t>
+  </si>
+  <si>
+    <t>regBusinessNbr</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="registeredBusinessNumber"]')</t>
+  </si>
+  <si>
+    <t>regBusinessNbrLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="registeredBusinessNumber"] ion-label')</t>
+  </si>
+  <si>
+    <t>regBusinessNbrInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="registeredBusinessNumber"] input')</t>
+  </si>
+  <si>
+    <t>businessRegisteredDate</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="registeredBusinessDate"]')</t>
+  </si>
+  <si>
+    <t>businessRegisteredDateLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="registeredBusinessDate"] label')</t>
+  </si>
+  <si>
+    <t>businessRegisteredDateCalender</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="registeredBusinessDate"] p-calendar')</t>
+  </si>
+  <si>
+    <t>officePremisesType</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="officePremisesType"]')</t>
+  </si>
+  <si>
+    <t>officePremisesTypeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="officePremisesType"] ion-label')</t>
+  </si>
+  <si>
+    <t>officePremisesTypeDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="officePremisesType"] ion-select')</t>
+  </si>
+  <si>
+    <t>shareHolderPercent</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="shareholderPercentage"]')</t>
+  </si>
+  <si>
+    <t>shareHolderPercentLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="shareholderPercentage"] ion-label')</t>
+  </si>
+  <si>
+    <t>shareHolderPercentInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="shareholderPercentage"] input')</t>
+  </si>
+  <si>
+    <t>numberOfEmployees</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="numberOfEmployees"]')</t>
+  </si>
+  <si>
+    <t>numberOfEmployeesLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="numberOfEmployees"] ion-label')</t>
+  </si>
+  <si>
+    <t>numberOfEmployeesInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="numberOfEmployees"] input')</t>
+  </si>
+  <si>
+    <t>experienceAtCurrentEmployment</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="yearsAtCurrentEmployment"]')</t>
+  </si>
+  <si>
+    <t>experienceAtCurrentEmploymentLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="yearsAtCurrentEmployment"] ion-label')</t>
+  </si>
+  <si>
+    <t>experienceAtCurrentEmploymentInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="yearsAtCurrentEmployment"] input')</t>
+  </si>
+  <si>
+    <t>directManagerName</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="managerName"]')</t>
+  </si>
+  <si>
+    <t>directManagerNameLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="managerName"] ion-label')</t>
+  </si>
+  <si>
+    <t>directManagerNameInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="managerName"] input')</t>
+  </si>
+  <si>
+    <t>employerCityCode</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employerPhoneCityCode"]')</t>
+  </si>
+  <si>
+    <t>employerCityCodeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employerPhoneCityCode"] ion-label')</t>
+  </si>
+  <si>
+    <t>employerCityCodeInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employerPhoneCityCode"] input')</t>
+  </si>
+  <si>
+    <t>retirementAge</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="retirementAge"]')</t>
+  </si>
+  <si>
+    <t>retirementAgeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="retirementAge"] ion-label')</t>
+  </si>
+  <si>
+    <t>retirementAgeInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="retirementAge"] input')</t>
+  </si>
+  <si>
+    <t>recordStatus</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="recStatus"]')</t>
+  </si>
+  <si>
+    <t>recordStatusLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="recStatus"] ion-label')</t>
+  </si>
+  <si>
+    <t>recordStatusToggleBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="recStatus"] ion-toggle')</t>
+  </si>
+  <si>
+    <t>remarks</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="remarks"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="remarks"] ion-label')</t>
+  </si>
+  <si>
+    <t>remarksTextarea</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="remarks"] ion-textarea')</t>
+  </si>
+  <si>
+    <t>listview_SearchBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-arrow-left"]').parentElement.parentElement.parentElement.querySelector('button[icon="pi pi-search"]')</t>
+  </si>
+  <si>
+    <t>listview_NatureOfEmployment</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="employmentTypeDesc"] span')</t>
+  </si>
+  <si>
+    <t>listview_EmployerName</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="employerName"] span')</t>
+  </si>
+  <si>
+    <t>listview_EmploymentStatus</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="employmentStatusDesc"] span')</t>
+  </si>
+  <si>
+    <t>listview_EmpValues</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-arrow-left"]').parentElement.parentElement.parentElement.querySelectorAll('tr')[1]</t>
+  </si>
+  <si>
+    <t>searchbox_Input</t>
+  </si>
+  <si>
+    <t>searchResult</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-arrow-left"]').parentElement.parentElement.parentElement.querySelector('p-paginator span[class*="p-paginator-current"]')</t>
+  </si>
+  <si>
+    <t>EmploymentEndDate</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-title-tool-tip="FORM.EMPLOYMENT_END_DATE.TOOLT"] input')</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2438,6 +4567,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2453,7 +4588,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2461,11 +4596,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2483,6 +4646,13 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2783,10 +4953,10 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" customWidth="1"/>
-    <col min="2" max="2" width="143.28515625" customWidth="1"/>
+    <col min="1" max="1" width="29.88671875" customWidth="1"/>
+    <col min="2" max="2" width="143.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2862,15 +5032,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="38" style="5" customWidth="1"/>
-    <col min="2" max="2" width="175.85546875" style="5" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="5"/>
+    <col min="2" max="2" width="175.88671875" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3151,11 +5321,11 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" customWidth="1"/>
-    <col min="2" max="2" width="187.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="39.33203125" customWidth="1"/>
+    <col min="2" max="2" width="187.44140625" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="7" customFormat="1">
@@ -3313,13 +5483,13 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="136.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3354,7 +5524,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="26.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="9" t="s">
         <v>669</v>
       </c>
@@ -3402,7 +5572,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="26.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="9" t="s">
         <v>344</v>
       </c>
@@ -3460,13 +5630,13 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="179.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="179.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3687,12 +5857,12 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="181" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3958,6 +6128,3103 @@
       </c>
       <c r="B33" t="s">
         <v>429</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="94.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>790</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>792</v>
+      </c>
+      <c r="B2" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>794</v>
+      </c>
+      <c r="B3" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>796</v>
+      </c>
+      <c r="B4" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>798</v>
+      </c>
+      <c r="B5" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>800</v>
+      </c>
+      <c r="B6" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>802</v>
+      </c>
+      <c r="B7" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>804</v>
+      </c>
+      <c r="B8" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>806</v>
+      </c>
+      <c r="B9" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>808</v>
+      </c>
+      <c r="B10" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>810</v>
+      </c>
+      <c r="B11" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>812</v>
+      </c>
+      <c r="B12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>814</v>
+      </c>
+      <c r="B13" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>816</v>
+      </c>
+      <c r="B14" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>818</v>
+      </c>
+      <c r="B15" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>820</v>
+      </c>
+      <c r="B16" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>345</v>
+      </c>
+      <c r="B17" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>711</v>
+      </c>
+      <c r="B18" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>822</v>
+      </c>
+      <c r="B19" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>824</v>
+      </c>
+      <c r="B20" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>828</v>
+      </c>
+      <c r="B21" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>826</v>
+      </c>
+      <c r="B22" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>786</v>
+      </c>
+      <c r="B23" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="16.8">
+      <c r="A25" t="s">
+        <v>834</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="16.8">
+      <c r="A26" t="s">
+        <v>832</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="16.8">
+      <c r="A27" t="s">
+        <v>830</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>829</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="47.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="119" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="9.109375" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="7" t="s">
+        <v>914</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="7" t="s">
+        <v>836</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="7" t="s">
+        <v>838</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="7" t="s">
+        <v>840</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="7" t="s">
+        <v>842</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="7" t="s">
+        <v>844</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="7" t="s">
+        <v>846</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="7" t="s">
+        <v>848</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="7" t="s">
+        <v>850</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="7" t="s">
+        <v>852</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="7" t="s">
+        <v>854</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="7" t="s">
+        <v>856</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="7" t="s">
+        <v>858</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="7" t="s">
+        <v>862</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="7" t="s">
+        <v>863</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="7" t="s">
+        <v>865</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="7" t="s">
+        <v>867</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="7" t="s">
+        <v>869</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="7" t="s">
+        <v>871</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="7" t="s">
+        <v>877</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="7" t="s">
+        <v>879</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="7" t="s">
+        <v>881</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="7" t="s">
+        <v>883</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="7" t="s">
+        <v>885</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="7" t="s">
+        <v>887</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="7" t="s">
+        <v>889</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="7" t="s">
+        <v>891</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="7" t="s">
+        <v>893</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="7" t="s">
+        <v>895</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="7" t="s">
+        <v>896</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="7" t="s">
+        <v>898</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="7" t="s">
+        <v>900</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="7" t="s">
+        <v>902</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="7" t="s">
+        <v>903</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="7" t="s">
+        <v>905</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="7" t="s">
+        <v>907</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="7" t="s">
+        <v>909</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="7" t="s">
+        <v>911</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="7" t="s">
+        <v>911</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>458</v>
+      </c>
+      <c r="B44" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="7" t="s">
+        <v>916</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="7" t="s">
+        <v>919</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="7" t="s">
+        <v>921</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="7" t="s">
+        <v>923</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="7" t="s">
+        <v>925</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="7" t="s">
+        <v>927</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="7" t="s">
+        <v>786</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>455</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B75"/>
+  <sheetViews>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="42.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="140.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="12" t="s">
+        <v>928</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="14" t="s">
+        <v>929</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="13" t="s">
+        <v>930</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="13" t="s">
+        <v>931</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="13" t="s">
+        <v>933</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="13" t="s">
+        <v>935</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="13" t="s">
+        <v>937</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="13" t="s">
+        <v>939</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="13" t="s">
+        <v>941</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="13" t="s">
+        <v>943</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="13" t="s">
+        <v>945</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="13" t="s">
+        <v>947</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="13" t="s">
+        <v>949</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="13" t="s">
+        <v>951</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="13" t="s">
+        <v>953</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="13" t="s">
+        <v>955</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="13" t="s">
+        <v>957</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="13" t="s">
+        <v>959</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="13" t="s">
+        <v>961</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="13" t="s">
+        <v>963</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="13" t="s">
+        <v>965</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="13" t="s">
+        <v>967</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="13" t="s">
+        <v>969</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="13" t="s">
+        <v>971</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="13" t="s">
+        <v>973</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="13" t="s">
+        <v>975</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="13" t="s">
+        <v>977</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="13" t="s">
+        <v>981</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="13" t="s">
+        <v>983</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="13" t="s">
+        <v>987</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="13" t="s">
+        <v>989</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="13" t="s">
+        <v>991</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="13" t="s">
+        <v>993</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="13" t="s">
+        <v>995</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="13" t="s">
+        <v>997</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="13" t="s">
+        <v>999</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="13" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="13" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="13" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="13" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="13" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="13" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="13" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="13" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="13" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="13" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="13" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="13" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="13" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="13" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="13" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="13" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="13" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="13" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="13" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="13" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="13" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="13" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="13" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="13" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="13" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="13" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="13" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="13" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="13" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="13" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="13" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="13" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="13" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="13" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="13" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B84"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="97.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="12" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>786</v>
+      </c>
+      <c r="B80" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>483</v>
+      </c>
+      <c r="B82" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>425</v>
+      </c>
+      <c r="B83" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>345</v>
+      </c>
+      <c r="B84" t="s">
+        <v>346</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B138"/>
+  <sheetViews>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B138" sqref="B138"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="141.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="12" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="17" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>83</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B135" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>24</v>
+      </c>
+      <c r="B137" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>602</v>
       </c>
     </row>
   </sheetData>
@@ -3970,13 +9237,13 @@
   <dimension ref="A1:B76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="53.28515625" customWidth="1"/>
-    <col min="2" max="2" width="122.42578125" customWidth="1"/>
+    <col min="1" max="1" width="53.33203125" customWidth="1"/>
+    <col min="2" max="2" width="122.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4597,14 +9864,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91:B91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" customWidth="1"/>
-    <col min="2" max="2" width="125.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.88671875" customWidth="1"/>
+    <col min="2" max="2" width="125.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5345,14 +10612,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:B49"/>
+    <sheetView topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
-    <col min="2" max="2" width="176.42578125" customWidth="1"/>
+    <col min="2" max="2" width="176.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5821,13 +11088,13 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="A17" sqref="A17:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="107.42578125" customWidth="1"/>
+    <col min="1" max="1" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="107.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5995,10 +11262,10 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="83.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="83.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -6126,11 +11393,11 @@
       <selection activeCell="A31" sqref="A31:B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="89.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="89.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -6398,10 +11665,10 @@
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="181.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="181.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -6681,9 +11948,9 @@
       <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="113" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Ijarah_Arul/TestData/IjaraJSPaths.xlsx
+++ b/Ijarah_Arul/TestData/IjaraJSPaths.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" firstSheet="16" activeTab="17"/>
+    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" firstSheet="15" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="1497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="1530">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -4526,6 +4526,105 @@
   </si>
   <si>
     <t>document.querySelector('digital-prime-date[ng-reflect-title-tool-tip="FORM.EMPLOYMENT_END_DATE.TOOLT"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.MODULE.CUST_REF.TOOLTIP"]+Ion-select')</t>
+  </si>
+  <si>
+    <t>RelationshipType</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.MODULE.CUST_REF_SALUTATION"]+Ion-select')</t>
+  </si>
+  <si>
+    <t>Salutation</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.ASSET.CUST_REF.CG_IDTYPE.D"]+Ion-select')</t>
+  </si>
+  <si>
+    <t>IdentificationType</t>
+  </si>
+  <si>
+    <t>MiddleName</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.MODULE.CUST_REF_MNAME.TOOL"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.MODULE.CUST_REF_LNAME.TOOL"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>CustomerFullName</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.MODULE.CUST_REF_CUSTFULLNA"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>IdentificationNumber</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.ASSET.CUST_REF.CG_IDNUM.DE"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>ContactNumber</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.MODULE.CUST_REF_CNO.TOOLTI"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.ASSET.CUST_REF.PHONE1.DETA"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>OfficePhoneNumber</t>
+  </si>
+  <si>
+    <t>PrimaryMobileNumber</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.ASSET.CUST_REF.MOBILE.DETA"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>AlternativeMobileNumber</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.ASSET.CUST_REF.MOBILE2.DET"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.ASSET.CUST_REF.EMAIL.DETAI"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>EmailID</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.ASSET.CUST_REF.YEARS_KNOWN"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>NoOfYearsKnown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.ASSET.CUST_REF.COREBANKING"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>CIFNumber</t>
+  </si>
+  <si>
+    <t>ResidenceAddress</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.ASSET.CUST_REF.CG_IDNUM.RE"]+ion-textarea textarea')</t>
+  </si>
+  <si>
+    <t>OfficeAddress</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.MODULE.CUST_REF_OFFICEADDS"]+ion-textarea textarea')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.NOOFPARTNERS.TOOLTIP"]+ion-input input')</t>
   </si>
 </sst>
 </file>
@@ -5033,7 +5132,7 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -5315,10 +5414,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5472,6 +5571,190 @@
         <v>22</v>
       </c>
     </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>663</v>
+      </c>
+      <c r="B22" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>403</v>
+      </c>
+      <c r="B36" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>483</v>
+      </c>
+      <c r="B39" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>425</v>
+      </c>
+      <c r="B40" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>694</v>
+      </c>
+      <c r="B41" t="s">
+        <v>693</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5483,7 +5766,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="A14" sqref="A14:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5856,8 +6139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6373,16 +6656,16 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="47.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="119" style="7" customWidth="1"/>
+    <col min="2" max="2" width="121.88671875" style="7" customWidth="1"/>
     <col min="3" max="16384" width="9.109375" style="7"/>
   </cols>
   <sheetData>
@@ -6792,6 +7075,38 @@
       </c>
       <c r="B51" s="7" t="s">
         <v>455</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>483</v>
+      </c>
+      <c r="B53" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>425</v>
+      </c>
+      <c r="B54" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>694</v>
+      </c>
+      <c r="B55" t="s">
+        <v>693</v>
       </c>
     </row>
   </sheetData>
@@ -6803,8 +7118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B75"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7420,10 +7735,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B84"/>
+  <dimension ref="A1:B87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7829,7 +8144,7 @@
         <v>1168</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>1165</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -8102,6 +8417,30 @@
       </c>
       <c r="B84" t="s">
         <v>346</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>399</v>
+      </c>
+      <c r="B85" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B86" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="17" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B87" s="17" t="s">
+        <v>604</v>
       </c>
     </row>
   </sheetData>
@@ -8111,10 +8450,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B138"/>
+  <dimension ref="A1:B210"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B138" sqref="B138"/>
+    <sheetView topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="B183" sqref="B183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9227,6 +9566,582 @@
         <v>602</v>
       </c>
     </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>483</v>
+      </c>
+      <c r="B139" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>425</v>
+      </c>
+      <c r="B140" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>694</v>
+      </c>
+      <c r="B141" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B163" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B173" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B174" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B176" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B178" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B180" s="7" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B189" s="7" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B194" s="7" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B195" s="7" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B196" s="7" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B197" s="7" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B198" s="7" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B199" s="7" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B200" s="7" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B201" s="7" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B202" s="7" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B203" s="7" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B204" s="7" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B205" s="7" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B206" s="7" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B207" s="7" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B208" s="7" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B209" s="7" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" t="s">
+        <v>399</v>
+      </c>
+      <c r="B210" t="s">
+        <v>400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9236,7 +10151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -9864,7 +10779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A91" sqref="A91:B91"/>
     </sheetView>
   </sheetViews>
@@ -10613,7 +11528,7 @@
   <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:B46"/>
+      <selection activeCell="A34" sqref="A34:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11661,7 +12576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
@@ -11945,7 +12860,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:B9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Ijarah_Arul/TestData/IjaraJSPaths.xlsx
+++ b/Ijarah_Arul/TestData/IjaraJSPaths.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" firstSheet="18" activeTab="22"/>
+    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" firstSheet="19" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -30,13 +30,14 @@
     <sheet name="Murabha_OperationCheck" sheetId="21" r:id="rId21"/>
     <sheet name="AutoLoan_Identification" sheetId="22" r:id="rId22"/>
     <sheet name="AutoLoan_EmploymentDetails" sheetId="23" r:id="rId23"/>
+    <sheet name="AutoLoan_ManualBank" sheetId="24" r:id="rId24"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3169" uniqueCount="1967">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3247" uniqueCount="1989">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -5940,6 +5941,72 @@
   </si>
   <si>
     <t>ALEmploymentDetails_FieldName</t>
+  </si>
+  <si>
+    <t>ALManualBank_FieldName</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Account Holder Name.TOOLTIP"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Bank Code.TOOLTIP"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>BankCode</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Account Branch.TOOLTIP"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>AccountBranch</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Bank Account Number.TOOLTIP"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>BankAccountNumber</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Bank Account Type.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>BankAccountType</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Currency Code.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>CurrencyCode</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-segment-button[id="seg16"]')</t>
+  </si>
+  <si>
+    <t>ManualBankTab</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="accountHolderName"]')</t>
+  </si>
+  <si>
+    <t>CustomerName_ViewList</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="bankAccountNumber"]')</t>
+  </si>
+  <si>
+    <t>AccountNumber_ViewList</t>
+  </si>
+  <si>
+    <t>BankCode_ViewList</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="accountBranch"]')</t>
+  </si>
+  <si>
+    <t>BranchCode_ViewList</t>
+  </si>
+  <si>
+    <t>EmployeeId</t>
   </si>
 </sst>
 </file>
@@ -6541,7 +6608,7 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B33"/>
+      <selection activeCell="A29" sqref="A29:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -7548,8 +7615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:B20"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9147,7 +9214,7 @@
   <dimension ref="A1:B87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9861,8 +9928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B210"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="A129" sqref="A129:B140"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11560,8 +11627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12188,8 +12255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B543"/>
   <sheetViews>
-    <sheetView topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="A168" sqref="A168:B168"/>
+    <sheetView topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="A141" sqref="A141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -16702,10 +16769,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:B38"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17034,6 +17101,30 @@
         <v>400</v>
       </c>
     </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>426</v>
+      </c>
+      <c r="B41" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>427</v>
+      </c>
+      <c r="B42" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>428</v>
+      </c>
+      <c r="B43" t="s">
+        <v>429</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17041,10 +17132,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD46"/>
+  <dimension ref="A1:XFD51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17282,7 +17373,7 @@
         <v>1480</v>
       </c>
       <c r="B29" t="s">
-        <v>1481</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -33803,6 +33894,313 @@
         <v>406</v>
       </c>
     </row>
+    <row r="47" spans="1:16384">
+      <c r="A47" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16384">
+      <c r="A48" t="s">
+        <v>426</v>
+      </c>
+      <c r="B48" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>427</v>
+      </c>
+      <c r="B49" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>428</v>
+      </c>
+      <c r="B50" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="141.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="12" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>345</v>
+      </c>
+      <c r="B8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>405</v>
+      </c>
+      <c r="B11" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>190</v>
+      </c>
+      <c r="B12" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B13" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>483</v>
+      </c>
+      <c r="B17" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>425</v>
+      </c>
+      <c r="B18" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>711</v>
+      </c>
+      <c r="B20" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>1985</v>
+      </c>
+      <c r="B23" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>1987</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>426</v>
+      </c>
+      <c r="B25" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>427</v>
+      </c>
+      <c r="B26" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>428</v>
+      </c>
+      <c r="B27" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>456</v>
+      </c>
+      <c r="B28" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>694</v>
+      </c>
+      <c r="B31" t="s">
+        <v>693</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -33812,8 +34210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A91" sqref="A91:B91"/>
+    <sheetView topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -34560,8 +34958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:B34"/>
+    <sheetView topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -35036,7 +35434,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:B17"/>
+      <selection activeCell="A16" sqref="A16:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -35207,7 +35605,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Ijarah_Arul/TestData/IjaraJSPaths.xlsx
+++ b/Ijarah_Arul/TestData/IjaraJSPaths.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" firstSheet="19" activeTab="22"/>
+    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" firstSheet="20" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -31,13 +31,14 @@
     <sheet name="AutoLoan_Identification" sheetId="22" r:id="rId22"/>
     <sheet name="AutoLoan_EmploymentDetails" sheetId="23" r:id="rId23"/>
     <sheet name="AutoLoan_ManualBank" sheetId="24" r:id="rId24"/>
+    <sheet name="CustomerDebt" sheetId="25" r:id="rId25"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3247" uniqueCount="1989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3311" uniqueCount="2011">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -6007,13 +6008,83 @@
   </si>
   <si>
     <t>EmployeeId</t>
+  </si>
+  <si>
+    <t>Ijarah_CustomerDebt</t>
+  </si>
+  <si>
+    <t>Action_Button_CFT</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-text="View"]')</t>
+  </si>
+  <si>
+    <t>DebtStatus</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-radio-button[ng-reflect-title="SCR.STATUS"]')</t>
+  </si>
+  <si>
+    <t>includeEligiblity</t>
+  </si>
+  <si>
+    <t>digital-radio-button[ng-reflect-title="Include in Eligibility Calcula"]</t>
+  </si>
+  <si>
+    <t>CloseDate_Display</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-title-tool-tip="Closed Date.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>StatusDisplay</t>
+  </si>
+  <si>
+    <t>frequencyDisplay</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[ng-reflect-name="repaymentFrequency"]')</t>
+  </si>
+  <si>
+    <t>lastPaymentDateDisplay</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-title-tool-tip="Last Payment Date.TOOLTIP"] p-calendar')</t>
+  </si>
+  <si>
+    <t>nextDueDateDisplay</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-title-tool-tip="Next Due date.TOOLTIP"] p-calendar')</t>
+  </si>
+  <si>
+    <t>last24CycleDisplay</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Last 24 Cycle.TOOLTIP"]+ion-input')</t>
+  </si>
+  <si>
+    <t>includeEligiblityDisplay</t>
+  </si>
+  <si>
+    <t>digital-radio-button[ng-reflect-title="Include in Eligibility Calcula"] ion-toggle</t>
+  </si>
+  <si>
+    <t>installmentAmtValidation</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Installment Amount"]+ion-input')</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;-&quot;&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$Rs.-4009]#,##0.00;[Red]&quot;-&quot;[$Rs.-4009]#,##0.00"/>
+  </numFmts>
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6067,8 +6138,44 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6091,6 +6198,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7F7F7F"/>
+        <bgColor rgb="FF7F7F7F"/>
       </patternFill>
     </fill>
   </fills>
@@ -6181,11 +6294,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -6227,10 +6353,25 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="11">
+    <cellStyle name="Excel Built-in Normal" xfId="2"/>
     <cellStyle name="Excel Built-in Normal 1" xfId="1"/>
+    <cellStyle name="Excel Built-in Normal 2" xfId="4"/>
+    <cellStyle name="Heading" xfId="5"/>
+    <cellStyle name="Heading1" xfId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Result" xfId="7"/>
+    <cellStyle name="Result2" xfId="8"/>
+    <cellStyle name="Result2 1" xfId="9"/>
+    <cellStyle name="Result2 2" xfId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -6608,7 +6749,7 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:B30"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -6892,8 +7033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="B17" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7389,7 +7530,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7896,10 +8037,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8124,6 +8265,62 @@
         <v>829</v>
       </c>
     </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>458</v>
+      </c>
+      <c r="B28" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>426</v>
+      </c>
+      <c r="B29" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>427</v>
+      </c>
+      <c r="B30" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>428</v>
+      </c>
+      <c r="B31" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>483</v>
+      </c>
+      <c r="B32" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>425</v>
+      </c>
+      <c r="B33" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>694</v>
+      </c>
+      <c r="B34" t="s">
+        <v>693</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8134,8 +8331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:B52"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -12255,14 +12452,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B543"/>
   <sheetViews>
-    <sheetView topLeftCell="A126" workbookViewId="0">
+    <sheetView topLeftCell="A297" workbookViewId="0">
       <selection activeCell="A141" sqref="A141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="49.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="97.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="97.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -16590,7 +16787,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="36.21875" customWidth="1"/>
+    <col min="1" max="1" width="36.33203125" customWidth="1"/>
     <col min="2" max="2" width="74.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16772,7 +16969,7 @@
   <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:B33"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17134,13 +17331,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="50.21875" customWidth="1"/>
+    <col min="1" max="1" width="50.33203125" customWidth="1"/>
     <col min="2" max="2" width="98.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -33943,8 +34140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:B27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -34203,6 +34400,232 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AMJ25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="31.88671875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="124.109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="1024" width="11.6640625" style="35" customWidth="1"/>
+    <col min="1025" max="16384" width="8.88671875" style="38"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="14.4">
+      <c r="A1" s="33" t="s">
+        <v>1989</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14.4">
+      <c r="A4" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="35" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="35" t="s">
+        <v>1992</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="35" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="35" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="35" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="35" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="35" t="s">
+        <v>2001</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="35" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="35" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="35" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="35" t="s">
+        <v>2009</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78739999999999999" right="0.78739999999999999" top="1.1232" bottom="1.1232" header="0.78739999999999999" footer="0.78739999999999999"/>
+  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;10&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;10Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 

--- a/Ijarah_Arul/TestData/IjaraJSPaths.xlsx
+++ b/Ijarah_Arul/TestData/IjaraJSPaths.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" firstSheet="20" activeTab="24"/>
+    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" firstSheet="20" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -16968,8 +16968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -34407,7 +34407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMJ25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>

--- a/Ijarah_Arul/TestData/IjaraJSPaths.xlsx
+++ b/Ijarah_Arul/TestData/IjaraJSPaths.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" firstSheet="20" activeTab="21"/>
+    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" firstSheet="22" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -32,13 +32,15 @@
     <sheet name="AutoLoan_EmploymentDetails" sheetId="23" r:id="rId23"/>
     <sheet name="AutoLoan_ManualBank" sheetId="24" r:id="rId24"/>
     <sheet name="CustomerDebt" sheetId="25" r:id="rId25"/>
+    <sheet name="AutoLoan_CustomerDetails" sheetId="26" r:id="rId26"/>
+    <sheet name="Sheet1" sheetId="27" r:id="rId27"/>
   </sheets>
   <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3311" uniqueCount="2011">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3469" uniqueCount="2125">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -6074,6 +6076,348 @@
   </si>
   <si>
     <t>document.querySelector('ion-label[ng-reflect-text="Installment Amount"]+ion-input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[ng-reflect-name="productCode"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[ng-reflect-name="subProductCode"]')</t>
+  </si>
+  <si>
+    <t>SubProduct</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-prime-ccy[ng-reflect-name="totalFinanceAmount"]')</t>
+  </si>
+  <si>
+    <t>TotalFinanceAmountRequested</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-prime-ccy[ng-reflect-name="declCurrNetincome"]')</t>
+  </si>
+  <si>
+    <t>DeclaredNetMonthlyIncome</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-prime-ccy[ng-reflect-name="currentObligations"]')</t>
+  </si>
+  <si>
+    <t>DeclaredCurrentObligations</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[ng-reflect-name="promotionCode"]')</t>
+  </si>
+  <si>
+    <t>SpecialPromotionCampaign</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[ng-reflect-name="sourcingChannel"]')</t>
+  </si>
+  <si>
+    <t>SourcingChannel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[ng-reflect-name="businessCenter"]')</t>
+  </si>
+  <si>
+    <t>BusinessCenterCode</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[ng-reflect-name="servicingBpType"]')</t>
+  </si>
+  <si>
+    <t>ServicingType</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[ng-reflect-name="serviciingBpId"]')</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[ng-reflect-name="serviceBranch"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="absherOtp"]')</t>
+  </si>
+  <si>
+    <t>AbsherOTP</t>
+  </si>
+  <si>
+    <t>CustomerDetailsElements</t>
+  </si>
+  <si>
+    <t>PersonalDetail_title</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Personal Details"]')</t>
+  </si>
+  <si>
+    <t>ContactDetail_title</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Contact details"]')</t>
+  </si>
+  <si>
+    <t>Customertype</t>
+  </si>
+  <si>
+    <t>Applicationtype</t>
+  </si>
+  <si>
+    <t>KYC_Status</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="KYC Status"]')</t>
+  </si>
+  <si>
+    <t>Salutataion</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[id="ion-sel-5-lbl"]+ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.FIRSTNAME.TOOLTIP"]+ion-input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[id="ion-input-4-lbl"]+ion-input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[id="ion-input-5-lbl"]+ion-input')</t>
+  </si>
+  <si>
+    <t>Father'sFirstName</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[id="ion-input-6-lbl"]+ion-input')</t>
+  </si>
+  <si>
+    <t>Father'sMiddleName</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[id="ion-input-7-lbl"]+ion-input')</t>
+  </si>
+  <si>
+    <t>Father'slastName</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[id="ion-input-8-lbl"]+ion-input')</t>
+  </si>
+  <si>
+    <t>spouse'sFirstName</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[id="ion-input-9-lbl"]+ion-input')</t>
+  </si>
+  <si>
+    <t>spouse'sMiddleName</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[id="ion-input-10-lbl"]+ion-input')</t>
+  </si>
+  <si>
+    <t>spouse'sLastName</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[id="ion-input-11-lbl"]+ion-input')</t>
+  </si>
+  <si>
+    <t>NoOfChild</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="No. Of Children.TOOLTIP"]+ion-input')</t>
+  </si>
+  <si>
+    <t>spouseStatus</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Spouse Status.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>dateOfBirthInput</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-title="LEAD_DETAILS.DOB"]')</t>
+  </si>
+  <si>
+    <t>genderField</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="gender"] ion-select')</t>
+  </si>
+  <si>
+    <t>maritailStatus</t>
+  </si>
+  <si>
+    <t>EducationLevel</t>
+  </si>
+  <si>
+    <t>nationality</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="CUSTOMERDETAILS_ETHINICITY.TOO"]+ion-select')</t>
+  </si>
+  <si>
+    <t>religion</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.RELIGION.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>residentialStatus</t>
+  </si>
+  <si>
+    <t>languages</t>
+  </si>
+  <si>
+    <t>mother'sMaidenName</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="CUSTOMERDETAILS_MOTHERS_MAIDEN"]+ion-input')</t>
+  </si>
+  <si>
+    <t>typeOfResidence</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.TYPE_OF_RESIDENCE"]+ion-select')</t>
+  </si>
+  <si>
+    <t>industrySegmentation</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.CATEGORY_OF_CLIEN"]+ion-select')</t>
+  </si>
+  <si>
+    <t>isIncomeConsidered</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Is Income Considered.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>customerProfile</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SRC.CUST_DETAILS.CUSTOMER_PROF"]+ion-select')</t>
+  </si>
+  <si>
+    <t>relationShip</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SRC.CUST_DETAILS.RELATIONSHIP."]+ion-select')</t>
+  </si>
+  <si>
+    <t>ExistingBankRelationship</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-radio-button[ng-reflect-name="existingCustomerFlag"]')</t>
+  </si>
+  <si>
+    <t>blacklisted</t>
+  </si>
+  <si>
+    <t>document.querySelector("#isBlacklisted &gt; div")</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="remarks"]')</t>
+  </si>
+  <si>
+    <t>remarkData</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="remarks"] ion-textarea textarea')</t>
+  </si>
+  <si>
+    <t>politicallyExposed</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Politically Exposed.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>initiateVideoKYC</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-col[class="d-flex justify-content-end md hydrated"] button')</t>
+  </si>
+  <si>
+    <t>Backbutton_customerdet</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="CUSTOMERDETAILS_PHONE_NUMBER_P"]+ion-input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="CUSTOMERDETAILS_MOBILE_NUMBER_"]+ion-input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="mobile2"] ion-label')</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="CUSTOMERDETAILS_EMAIL.TOOLTIP"]+ion-input')</t>
+  </si>
+  <si>
+    <t>PreferedContactMethod</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="CUSTOMERDETAILS_PREFERED_CONTA"]+ion-select')</t>
+  </si>
+  <si>
+    <t>PreferedTimeForContact</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="CUSTOMERDETAILS_PREFERED_TIME_"]+ion-input')</t>
+  </si>
+  <si>
+    <t>customerDetailTab</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-segment-button[id="seg3"]')[1]</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="cifId"]')</t>
+  </si>
+  <si>
+    <t>FirstNameViewList</t>
+  </si>
+  <si>
+    <t>MiddleNameViewList</t>
+  </si>
+  <si>
+    <t>LastNameViewList</t>
+  </si>
+  <si>
+    <t>CustomerTypeViewList</t>
+  </si>
+  <si>
+    <t>ApplicantTypeViewList</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="customerRating"]')</t>
+  </si>
+  <si>
+    <t>CustomerRatingViewList</t>
+  </si>
+  <si>
+    <t>StatusViewList</t>
+  </si>
+  <si>
+    <t>MobileNumberprimary</t>
+  </si>
+  <si>
+    <t>MobileNumbersecondary</t>
+  </si>
+  <si>
+    <t>CIFID_ViewList</t>
   </si>
 </sst>
 </file>
@@ -6084,7 +6428,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;-&quot;&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="[$Rs.-4009]#,##0.00;[Red]&quot;-&quot;[$Rs.-4009]#,##0.00"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6172,6 +6516,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -6311,7 +6661,7 @@
     <xf numFmtId="165" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -6359,6 +6709,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Excel Built-in Normal" xfId="2"/>
@@ -8331,7 +8683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A55" sqref="A55:B55"/>
     </sheetView>
   </sheetViews>
@@ -11824,7 +12176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
@@ -12452,8 +12804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B543"/>
   <sheetViews>
-    <sheetView topLeftCell="A297" workbookViewId="0">
-      <selection activeCell="A141" sqref="A141"/>
+    <sheetView topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="A326" sqref="A326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -16968,7 +17320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -34140,8 +34492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -34629,12 +34981,572 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="103.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.6">
+      <c r="A1" s="39" t="s">
+        <v>2033</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.6">
+      <c r="A2" s="39" t="s">
+        <v>2034</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.6">
+      <c r="A3" s="39" t="s">
+        <v>2036</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.6">
+      <c r="A4" s="39" t="s">
+        <v>2038</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.6">
+      <c r="A5" s="39" t="s">
+        <v>2039</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.6">
+      <c r="A6" s="39" t="s">
+        <v>2040</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.6">
+      <c r="A7" s="39" t="s">
+        <v>2042</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.6">
+      <c r="A8" s="39" t="s">
+        <v>663</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.6">
+      <c r="A9" s="39" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.6">
+      <c r="A10" s="39" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.6">
+      <c r="A11" s="39" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.6">
+      <c r="A12" s="39" t="s">
+        <v>2049</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.6">
+      <c r="A13" s="39" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.6">
+      <c r="A14" s="39" t="s">
+        <v>2053</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.6">
+      <c r="A15" s="39" t="s">
+        <v>2055</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.6">
+      <c r="A16" s="39" t="s">
+        <v>2057</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.6">
+      <c r="A17" s="39" t="s">
+        <v>2059</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.6">
+      <c r="A18" s="39" t="s">
+        <v>2061</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.6">
+      <c r="A19" s="39" t="s">
+        <v>2063</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.6">
+      <c r="A20" s="39" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.6">
+      <c r="A21" s="39" t="s">
+        <v>2066</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.6">
+      <c r="A22" s="39" t="s">
+        <v>2068</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.6">
+      <c r="A23" s="39" t="s">
+        <v>2069</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.6">
+      <c r="A24" s="39" t="s">
+        <v>2070</v>
+      </c>
+      <c r="B24" s="39" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.6">
+      <c r="A25" s="39" t="s">
+        <v>2071</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.6">
+      <c r="A26" s="39" t="s">
+        <v>2073</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.6">
+      <c r="A27" s="39" t="s">
+        <v>2075</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.6">
+      <c r="A28" s="39" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B28" s="39" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.6">
+      <c r="A29" s="39" t="s">
+        <v>879</v>
+      </c>
+      <c r="B29" s="39" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.6">
+      <c r="A30" s="39" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B30" s="39" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.6">
+      <c r="A31" s="39" t="s">
+        <v>2079</v>
+      </c>
+      <c r="B31" s="39" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.6">
+      <c r="A32" s="39" t="s">
+        <v>2081</v>
+      </c>
+      <c r="B32" s="39" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.6">
+      <c r="A33" s="39" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B33" s="39" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.6">
+      <c r="A34" s="39" t="s">
+        <v>2085</v>
+      </c>
+      <c r="B34" s="39" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.6">
+      <c r="A35" s="39" t="s">
+        <v>2087</v>
+      </c>
+      <c r="B35" s="39" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.6">
+      <c r="A36" s="39" t="s">
+        <v>2089</v>
+      </c>
+      <c r="B36" s="39" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.6">
+      <c r="A37" s="39" t="s">
+        <v>2091</v>
+      </c>
+      <c r="B37" s="39" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.6">
+      <c r="A38" s="39" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B38" s="39" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.6">
+      <c r="A39" s="39" t="s">
+        <v>2094</v>
+      </c>
+      <c r="B39" s="39" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.6">
+      <c r="A40" s="39" t="s">
+        <v>2096</v>
+      </c>
+      <c r="B40" s="39" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.6">
+      <c r="A41" s="40" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.6">
+      <c r="A42" s="39" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B42" s="39" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.6">
+      <c r="A43" s="40" t="s">
+        <v>2101</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.6">
+      <c r="A44" s="40" t="s">
+        <v>2122</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.6">
+      <c r="A45" s="40" t="s">
+        <v>2123</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.6">
+      <c r="A46" s="40" t="s">
+        <v>2105</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.6">
+      <c r="A47" s="40" t="s">
+        <v>2107</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.6">
+      <c r="A48" s="40" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.6">
+      <c r="A49" s="40" t="s">
+        <v>2111</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.6">
+      <c r="A50" s="40" t="s">
+        <v>2124</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.6">
+      <c r="A51" s="40" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B51" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.6">
+      <c r="A52" s="40" t="s">
+        <v>2115</v>
+      </c>
+      <c r="B52" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.6">
+      <c r="A53" s="40" t="s">
+        <v>2116</v>
+      </c>
+      <c r="B53" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.6">
+      <c r="A54" s="40" t="s">
+        <v>2117</v>
+      </c>
+      <c r="B54" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15.6">
+      <c r="A55" s="40" t="s">
+        <v>2118</v>
+      </c>
+      <c r="B55" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15.6">
+      <c r="A56" s="40" t="s">
+        <v>2120</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15.6">
+      <c r="A57" s="40" t="s">
+        <v>2121</v>
+      </c>
+      <c r="B57" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>483</v>
+      </c>
+      <c r="B59" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>425</v>
+      </c>
+      <c r="B60" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>426</v>
+      </c>
+      <c r="B61" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>427</v>
+      </c>
+      <c r="B62" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>428</v>
+      </c>
+      <c r="B63" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>169</v>
+      </c>
+      <c r="B64" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>458</v>
+      </c>
+      <c r="B65" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>694</v>
+      </c>
+      <c r="B66" t="s">
+        <v>693</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -35381,8 +36293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="B42" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -35857,7 +36769,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:B16"/>
+      <selection activeCell="A17" sqref="A17:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -36025,10 +36937,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -36149,6 +37061,110 @@
         <v>22</v>
       </c>
     </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>794</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>2013</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>2015</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>2019</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>2021</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>2025</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>2029</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>802</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27" t="s">
+        <v>166</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -36158,7 +37174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A31" sqref="A31:B31"/>
     </sheetView>
   </sheetViews>

--- a/Ijarah_Arul/TestData/IjaraJSPaths.xlsx
+++ b/Ijarah_Arul/TestData/IjaraJSPaths.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" firstSheet="22" activeTab="25"/>
+    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" firstSheet="25" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -33,14 +33,17 @@
     <sheet name="AutoLoan_ManualBank" sheetId="24" r:id="rId24"/>
     <sheet name="CustomerDebt" sheetId="25" r:id="rId25"/>
     <sheet name="AutoLoan_CustomerDetails" sheetId="26" r:id="rId26"/>
-    <sheet name="Sheet1" sheetId="27" r:id="rId27"/>
+    <sheet name="newApp_AppllicationDetailsJS" sheetId="28" r:id="rId27"/>
+    <sheet name="Sheet1" sheetId="27" r:id="rId28"/>
+    <sheet name="iJarah_CommonElements" sheetId="29" r:id="rId29"/>
+    <sheet name="customer_search_JS" sheetId="30" r:id="rId30"/>
   </sheets>
   <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3469" uniqueCount="2125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3677" uniqueCount="2301">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -6418,6 +6421,534 @@
   </si>
   <si>
     <t>CIFID_ViewList</t>
+  </si>
+  <si>
+    <t>Ijarah_NewApp_fieldName</t>
+  </si>
+  <si>
+    <t>application_details_add_button</t>
+  </si>
+  <si>
+    <t>clasification_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.CLASSIFICATION.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>product_product_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.PRODUCT.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>sub_product_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.SCHEME_MST_SUBPRODUCTCODE."]+ion-select')</t>
+  </si>
+  <si>
+    <t>total_amount_requested_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.TotalFinanc"]').innerText</t>
+  </si>
+  <si>
+    <t>total_amount_requested_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-prime-ccy[ng-reflect-form-control-name-label="totalFinanceAmount"] input')</t>
+  </si>
+  <si>
+    <t>total_amount_requested_get_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-prime-ccy[ng-reflect-form-control-name-label="totalFinanceAmount"] input').value</t>
+  </si>
+  <si>
+    <t>declared_net_input_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.DeclaredNet"]').innerText</t>
+  </si>
+  <si>
+    <t>declared_net_income_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-prime-ccy[ng-reflect-name="declCurrNetincome"] input')</t>
+  </si>
+  <si>
+    <t>declared_current_obligation_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.DeclaredCur"]').innerText</t>
+  </si>
+  <si>
+    <t>declared_current_obligation_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-prime-ccy[ng-reflect-name="currentObligations"] input')</t>
+  </si>
+  <si>
+    <t>special_promotion_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.SpecialProm"]+ion-select')</t>
+  </si>
+  <si>
+    <t>sourcing_channel_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.SourcingCha"]+ion-select')</t>
+  </si>
+  <si>
+    <t>business_center_code_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.BusinessCen"]+ion-select')</t>
+  </si>
+  <si>
+    <t>servicing_type_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.ServicingTy"]+ion-select')</t>
+  </si>
+  <si>
+    <t>region_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.Region.TOOL"]+ion-select')</t>
+  </si>
+  <si>
+    <t>servicing_branch_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.ServicingBr"]+ion-select')</t>
+  </si>
+  <si>
+    <t>spoke_location_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Spoke Location.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>topup_type_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Topup Type.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>topup_application_number_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Topup Application No.TOOLTIP"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>topup_application_number_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="topupApplNo"]').innerText</t>
+  </si>
+  <si>
+    <t>closing_staff_of_servicing_staff_RM_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.ClosingStaf"]+ion-select')</t>
+  </si>
+  <si>
+    <t>sourcing_type_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.SourcingTyp"]+ion-select')</t>
+  </si>
+  <si>
+    <t>sourcing_office_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.SourcingOff"]+ion-select')</t>
+  </si>
+  <si>
+    <t>sourcing_entity_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.SourcingEnt"]+ion-select')</t>
+  </si>
+  <si>
+    <t>sourcing_staff_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.SourcingSta"]+ion-select')</t>
+  </si>
+  <si>
+    <t>reference_type_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.ReferenceTy"]+ion-select')</t>
+  </si>
+  <si>
+    <t>reference_entity_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.ReferenceEn"]+ion-select')</t>
+  </si>
+  <si>
+    <t>reference_code_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.ReferenceCo"]').innerText</t>
+  </si>
+  <si>
+    <t>reference_code_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.ReferenceCo"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>new_application_listview_edit_button</t>
+  </si>
+  <si>
+    <t>new_application_submit_button</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-label="Submit"]')</t>
+  </si>
+  <si>
+    <t>new_application_return_button</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-label="Return"]')</t>
+  </si>
+  <si>
+    <t>new_aplication_view_summary_button</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('kub-workflow-decision button')[2]</t>
+  </si>
+  <si>
+    <t>view_summary_verification</t>
+  </si>
+  <si>
+    <t>view_summary_close_button</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-toolbar ion-button[ng-reflect-color="danger"]')</t>
+  </si>
+  <si>
+    <t>list_view_record_status_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('p-tag[class="p-element ng-star-inserted"]').innerText</t>
+  </si>
+  <si>
+    <t>new_application_details_status_button</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-toggle[role="switch"]')</t>
+  </si>
+  <si>
+    <t>new_application_details_record_status</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-toggle[role="switch"]').getAttribute('aria-checked')</t>
+  </si>
+  <si>
+    <t>document.querySelector('span[class$="p-highlight ng-star-inserted"]')</t>
+  </si>
+  <si>
+    <t>application_details_list_view_record</t>
+  </si>
+  <si>
+    <t>application_details_list_view_record_status</t>
+  </si>
+  <si>
+    <t>application_details_view_summary_button</t>
+  </si>
+  <si>
+    <t>appllication_details_view_summary_verification</t>
+  </si>
+  <si>
+    <t>application_details_view_summary_close_button</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-button[ng-reflect-color="danger"]')</t>
+  </si>
+  <si>
+    <t>application_details_list_view_search_button</t>
+  </si>
+  <si>
+    <t>document.querySelector('app-screen button[icon="pi pi-search"]')</t>
+  </si>
+  <si>
+    <t>application_details_list_view_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('app-screen input[mode="ios"]')</t>
+  </si>
+  <si>
+    <t>application_details_list_view_search_result</t>
+  </si>
+  <si>
+    <t>document.querySelector('app-screen ion-col span[class="p-paginator-current ng-star-inserted"]').textContent</t>
+  </si>
+  <si>
+    <t>application_details_list_view_export</t>
+  </si>
+  <si>
+    <t>document.querySelector('p-dropdown[placeholder="Export"]')</t>
+  </si>
+  <si>
+    <t>application_details_list_view_record_is_read_only</t>
+  </si>
+  <si>
+    <t>Ijarah_CommonFieldName</t>
+  </si>
+  <si>
+    <t>module_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-select[ng-reflect-text="Module name"]')</t>
+  </si>
+  <si>
+    <t>moduledropdown_LOSOption</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[id^=ion-rb]').innerText</t>
+  </si>
+  <si>
+    <t>mail_box</t>
+  </si>
+  <si>
+    <t>mail_box_search_button</t>
+  </si>
+  <si>
+    <t>document.querySelector('app-inbox button[ng-reflect-text="Search"]')</t>
+  </si>
+  <si>
+    <t>mail_box_search_text</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-card-content span&gt;input')</t>
+  </si>
+  <si>
+    <t>mail_box_edit_icon</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-icon="pi pi-user-edit"]')</t>
+  </si>
+  <si>
+    <t>save_button</t>
+  </si>
+  <si>
+    <t>back_button</t>
+  </si>
+  <si>
+    <t>today_date</t>
+  </si>
+  <si>
+    <t>toast_message</t>
+  </si>
+  <si>
+    <t>pdf_download</t>
+  </si>
+  <si>
+    <t>xls_download</t>
+  </si>
+  <si>
+    <t>toast_container_message</t>
+  </si>
+  <si>
+    <t>document.querySelector('div[id="toast-container"] button+div').innerText</t>
+  </si>
+  <si>
+    <t>toast_container_message_close_button</t>
+  </si>
+  <si>
+    <t>document.querySelector('div[id="toast-container"] button')</t>
+  </si>
+  <si>
+    <t>menu_bar</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-button[class="toggleCollapse-btn md button button-solid ion-activatable ion-focusable hydrated"]')</t>
+  </si>
+  <si>
+    <t>transaction_main_module</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-accordion[value="Transactions"] ion-item[class^="menu-list-accordian"] ion-icon[class="ion-accordion-toggle-icon md hydrated"]')</t>
+  </si>
+  <si>
+    <t>application_manager_module</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-list ion-accordion[value="Transactions"] ion-icon[class="ion-accordion-toggle-icon md hydrated"]')</t>
+  </si>
+  <si>
+    <t>submit_button</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-workflow-decision button[ng-reflect-label="Submit"]')</t>
+  </si>
+  <si>
+    <t>alert_ok</t>
+  </si>
+  <si>
+    <t>document.getElementsByTagName('ion-chip')[0]</t>
+  </si>
+  <si>
+    <t>alert_submit</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-icon="pi pi-send"]')</t>
+  </si>
+  <si>
+    <t>return_button</t>
+  </si>
+  <si>
+    <t>return_Stage_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('app-workflow-pop ion-select')</t>
+  </si>
+  <si>
+    <t>return_dropdown_length</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-radio[class="sc-ion-select-popover-ios ios in-item interactive hydrated"]').length</t>
+  </si>
+  <si>
+    <t>alert_text_box_return</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-textarea textarea')</t>
+  </si>
+  <si>
+    <t>alert_return_button</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[label="Return"]')</t>
+  </si>
+  <si>
+    <t>approve_button</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-label="Approve"]')</t>
+  </si>
+  <si>
+    <t>alert_approve_button</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[label="Approve"]')</t>
+  </si>
+  <si>
+    <t>list_view_search_button</t>
+  </si>
+  <si>
+    <t>document.querySelector('app-screen button[ng-reflect-text="Search"]')</t>
+  </si>
+  <si>
+    <t>list_view_search_result</t>
+  </si>
+  <si>
+    <t>document.querySelector('app-screen p-paginator span[class="p-paginator-current ng-star-inserted"]').innerText</t>
+  </si>
+  <si>
+    <t>list_view_export_button</t>
+  </si>
+  <si>
+    <t>confirmation_save_button</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[class="p-element cmn-frm-btn p-button-secondary p-button-sm p-button-raised k-mx-2 p-button p-component ng-star-inserted"]')</t>
+  </si>
+  <si>
+    <t>save_confirmation_ok_button</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('p button[class="primaryBtn btnSmall confirmDialogBtn"]')[1]</t>
+  </si>
+  <si>
+    <t>application_alert_validation</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-card-subtitle[role="heading"]')</t>
+  </si>
+  <si>
+    <t>export_button</t>
+  </si>
+  <si>
+    <t>reject_button</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-label="Reject"]')</t>
+  </si>
+  <si>
+    <t>alert_reject_button</t>
+  </si>
+  <si>
+    <t>ion-col[class="md hydrated"] button[ng-reflect-label="Reject"]</t>
+  </si>
+  <si>
+    <t>alert_close_button</t>
+  </si>
+  <si>
+    <t>Ijarah_customer_search_fieldName</t>
+  </si>
+  <si>
+    <t>customer_type_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Customer Type.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>customer_name_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Customer Name"] ion-label').innerText</t>
+  </si>
+  <si>
+    <t>customer_name_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Customer Name"] input')</t>
+  </si>
+  <si>
+    <t>id_type_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ID Type.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>id_number_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="idNumber"] ion-label').innerText</t>
+  </si>
+  <si>
+    <t>id_number_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="idNumber"] input')</t>
+  </si>
+  <si>
+    <t>date_of_birth_calendar_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-title="Date of Birth"] input')</t>
+  </si>
+  <si>
+    <t>customer_search_search_button</t>
+  </si>
+  <si>
+    <t>document.querySelector('customer-search button[ng-reflect-text="Search"]')</t>
+  </si>
+  <si>
+    <t>customer_search_mobile_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Mobile Number"] ion-input input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-info-circle"]')</t>
   </si>
 </sst>
 </file>
@@ -6525,7 +7056,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6554,6 +7085,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF7F7F7F"/>
         <bgColor rgb="FF7F7F7F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -6661,7 +7198,7 @@
     <xf numFmtId="165" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -6711,6 +7248,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Excel Built-in Normal" xfId="2"/>
@@ -17134,7 +17676,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:B23"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17320,8 +17862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17683,7 +18225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD51"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
@@ -34985,7 +35527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
@@ -35531,9 +36073,455 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="95.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="41" t="s">
+        <v>2125</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="24" t="s">
+        <v>2126</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="24" t="s">
+        <v>2127</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="13" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="13" t="s">
+        <v>2131</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="13" t="s">
+        <v>2133</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="13" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="13" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="13" t="s">
+        <v>2139</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="13" t="s">
+        <v>2141</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="13" t="s">
+        <v>2143</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="13" t="s">
+        <v>2145</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="13" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="13" t="s">
+        <v>2149</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="13" t="s">
+        <v>2151</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="13" t="s">
+        <v>2153</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="13" t="s">
+        <v>2155</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="13" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="13" t="s">
+        <v>2159</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="13" t="s">
+        <v>2161</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="13" t="s">
+        <v>2163</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="13" t="s">
+        <v>2165</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="13" t="s">
+        <v>2167</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="13" t="s">
+        <v>2169</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="13" t="s">
+        <v>2171</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="13" t="s">
+        <v>2173</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="13" t="s">
+        <v>2175</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="13" t="s">
+        <v>2177</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="13" t="s">
+        <v>2179</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="13" t="s">
+        <v>2181</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="13" t="s">
+        <v>2183</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="26" t="s">
+        <v>2185</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="26" t="s">
+        <v>2186</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="26" t="s">
+        <v>2188</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="26" t="s">
+        <v>2190</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="26" t="s">
+        <v>2192</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="26" t="s">
+        <v>2193</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="26" t="s">
+        <v>2195</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="26" t="s">
+        <v>2197</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="26" t="s">
+        <v>2199</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="26" t="s">
+        <v>891</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="26" t="s">
+        <v>2202</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="26" t="s">
+        <v>2203</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="26" t="s">
+        <v>2204</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="26" t="s">
+        <v>2205</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="26" t="s">
+        <v>2206</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="26" t="s">
+        <v>2208</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="26" t="s">
+        <v>2210</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="26" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="26" t="s">
+        <v>2214</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="26" t="s">
+        <v>2216</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="43" t="s">
+        <v>644</v>
+      </c>
+      <c r="B52" s="43" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>346</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
@@ -35541,12 +36529,352 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="38.6640625" customWidth="1"/>
+    <col min="2" max="2" width="147.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="41" t="s">
+        <v>2217</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="24" t="s">
+        <v>2218</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="24" t="s">
+        <v>2220</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="13" t="s">
+        <v>2222</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="13" t="s">
+        <v>2223</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="13" t="s">
+        <v>2225</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="13" t="s">
+        <v>2227</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="26" t="s">
+        <v>2229</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="26" t="s">
+        <v>2230</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="26" t="s">
+        <v>2231</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="26" t="s">
+        <v>2232</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="26" t="s">
+        <v>2233</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="26" t="s">
+        <v>2234</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="26" t="s">
+        <v>2235</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="26" t="s">
+        <v>2237</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="26" t="s">
+        <v>2239</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="26" t="s">
+        <v>2241</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="26" t="s">
+        <v>2243</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="26" t="s">
+        <v>2245</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="26" t="s">
+        <v>2247</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="26" t="s">
+        <v>2249</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="26" t="s">
+        <v>2251</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="26" t="s">
+        <v>2245</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="26" t="s">
+        <v>2252</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="26" t="s">
+        <v>2254</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="26" t="s">
+        <v>2256</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="26" t="s">
+        <v>2258</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="26" t="s">
+        <v>2260</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="26" t="s">
+        <v>2262</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="26" t="s">
+        <v>2264</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="26" t="s">
+        <v>2266</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="26" t="s">
+        <v>789</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="26" t="s">
+        <v>2268</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="26" t="s">
+        <v>2269</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="26" t="s">
+        <v>2271</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="26" t="s">
+        <v>2273</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="26" t="s">
+        <v>2275</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="26" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="26" t="s">
+        <v>2278</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="26" t="s">
+        <v>2280</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91:B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -36286,6 +37614,113 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="37.33203125" customWidth="1"/>
+    <col min="2" max="2" width="96.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="41" t="s">
+        <v>2281</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="13" t="s">
+        <v>2282</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="13" t="s">
+        <v>2284</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="13" t="s">
+        <v>2286</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="13" t="s">
+        <v>2288</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="13" t="s">
+        <v>2290</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="13" t="s">
+        <v>2292</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="13" t="s">
+        <v>2294</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="13" t="s">
+        <v>2296</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="26" t="s">
+        <v>891</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="26" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>2299</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/Ijarah_Arul/TestData/IjaraJSPaths.xlsx
+++ b/Ijarah_Arul/TestData/IjaraJSPaths.xlsx
@@ -38,12 +38,12 @@
     <sheet name="iJarah_CommonElements" sheetId="29" r:id="rId29"/>
     <sheet name="customer_search_JS" sheetId="30" r:id="rId30"/>
   </sheets>
-  <calcPr calcId="124519" iterateDelta="1E-4"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3677" uniqueCount="2301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3955" uniqueCount="2481">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -6949,6 +6949,546 @@
   </si>
   <si>
     <t>document.querySelector('button[icon="pi pi-info-circle"]')</t>
+  </si>
+  <si>
+    <t>facility_info_add_button</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="product"] ion-select')</t>
+  </si>
+  <si>
+    <t>product_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="subProductCode"] ion-select')</t>
+  </si>
+  <si>
+    <t>scheme_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="schemeId"] ion-select')</t>
+  </si>
+  <si>
+    <t>program_code_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="programCode"] ion-select')</t>
+  </si>
+  <si>
+    <t>facility_type_code_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="facilityTypeCode"] ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="location"] ion-select')</t>
+  </si>
+  <si>
+    <t>pricing_indecator_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="packageId"] ion-select')</t>
+  </si>
+  <si>
+    <t>asset_price_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-prime-ccy[id="assetPrice"] input')</t>
+  </si>
+  <si>
+    <t>asset_price_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-prime-ccy[id="assetPrice"]').innerText</t>
+  </si>
+  <si>
+    <t>downpayment_amount_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="downPaymentAmount"] input')</t>
+  </si>
+  <si>
+    <t>downpayment_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="downPaymentAmount"]').innerText</t>
+  </si>
+  <si>
+    <t>amount_requested_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-prime-ccy[id="amountRequested"] input')</t>
+  </si>
+  <si>
+    <t>amount_requested_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-prime-ccy[id="amountRequested"]').innerText</t>
+  </si>
+  <si>
+    <t>get_requested_amount_value</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-prime-ccy[id="amountRequested"] input').value</t>
+  </si>
+  <si>
+    <t>curency_code_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="currencyCode"] ion-select')</t>
+  </si>
+  <si>
+    <t>loan_tenure_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="loanTenure"] input')</t>
+  </si>
+  <si>
+    <t>get_loan_tenure_value</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="loanTenure"] input').value</t>
+  </si>
+  <si>
+    <t>loan_tenure_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="loanTenure"]').innerText</t>
+  </si>
+  <si>
+    <t>list_view_tenure_amount</t>
+  </si>
+  <si>
+    <t>document.querySelector('tbody[class="p-element p-datatable-tbody"] tr[class="p-element az-cursor-default ng-star-inserted"] td:nth-child(5) span').innerText</t>
+  </si>
+  <si>
+    <t>list_view_amount_requested</t>
+  </si>
+  <si>
+    <t>document.querySelector('tbody[class="p-element p-datatable-tbody"] tr[class="p-element az-cursor-default ng-star-inserted"] td:nth-child(6) span').innerText</t>
+  </si>
+  <si>
+    <t>document.querySelector('tbody[class="p-element p-datatable-tbody"] tr[class="p-element az-cursor-default ng-star-inserted"] td:nth-child(7) span').innerText</t>
+  </si>
+  <si>
+    <t>list_view_edit_button</t>
+  </si>
+  <si>
+    <t>document.querySelector('tbody[class="p-element p-datatable-tbody"] tr[class="p-element az-cursor-default ng-star-inserted"] td:nth-child(1) button[ng-reflect-text="Edit"]')</t>
+  </si>
+  <si>
+    <t>facility_info_tab</t>
+  </si>
+  <si>
+    <t>list_view_non_editable_field</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-prime-table tbody td:nth-child(3)')</t>
+  </si>
+  <si>
+    <t>list_view_header_field_name</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-prime-table thead').innerText</t>
+  </si>
+  <si>
+    <t>disbursment_checker_facility_info_tab</t>
+  </si>
+  <si>
+    <t>facility_list_view_button</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('button[ng-reflect-text="View"]')[0]</t>
+  </si>
+  <si>
+    <t>first_Name_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerFirstName"] ion-label').innerText</t>
+  </si>
+  <si>
+    <t>middle_name_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerMiddleName"] ion-label').innerText</t>
+  </si>
+  <si>
+    <t>last_name_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerLastName"] ion-label').innerText</t>
+  </si>
+  <si>
+    <t>family_name_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerThirdName"] ion-label').innerText</t>
+  </si>
+  <si>
+    <t>first_name_arabic_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerFirstNameInOtherLang"] ion-label').innerText</t>
+  </si>
+  <si>
+    <t>middle_name_arabic_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerMiddleNameInOtherLang"] ion-label').innerText</t>
+  </si>
+  <si>
+    <t>last_name_arabic_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerLastNameInOtherLang"] ion-label').innerText</t>
+  </si>
+  <si>
+    <t>family_name_arabic_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerNameInOtherLang"] ion-label').innerText</t>
+  </si>
+  <si>
+    <t>date_of_birth_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-title="LEAD_DETAILS.DOB"]').innerText</t>
+  </si>
+  <si>
+    <t>date_of_birth_field_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-title="LEAD_DETAILS.DOB"] p-calendar').getAttribute('ng-reflect-date-format')</t>
+  </si>
+  <si>
+    <t>age_input_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.AGE.TOOLTIP"]+ion-input input').getAttribute('type')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.AGE.TOOLTIP"]+ion-input input').value</t>
+  </si>
+  <si>
+    <t>age_field_editable_check</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.AGE.TOOLTIP"]+ion-input').getAttribute('ng-reflect-readonly')</t>
+  </si>
+  <si>
+    <t>age_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.AGE.TOOLTIP"]').innerText</t>
+  </si>
+  <si>
+    <t>no_of_dependents_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.NO_OF_DEPENDENTS."]').innerText</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="remarks"] ion-input input')</t>
+  </si>
+  <si>
+    <t>remarks_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="remarks"] ion-label').innerText</t>
+  </si>
+  <si>
+    <t>blacklisted_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Blacklisted"]').innerText</t>
+  </si>
+  <si>
+    <t>no_of_childer_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="extnNum1"] input')</t>
+  </si>
+  <si>
+    <t>no_of_children_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="extnNum1"]').innerText</t>
+  </si>
+  <si>
+    <t>salutation_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="salutation"] ion-select')</t>
+  </si>
+  <si>
+    <t>salutation_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="salutation"]').innerText</t>
+  </si>
+  <si>
+    <t>father_first_name_Input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="extnChar1"] input')</t>
+  </si>
+  <si>
+    <t>father_first_name_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="extnChar1"]').innerText</t>
+  </si>
+  <si>
+    <t>father_middle_name_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="extnChar2"] input')</t>
+  </si>
+  <si>
+    <t>father_middle_name_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="extnChar2"]').innerText</t>
+  </si>
+  <si>
+    <t>father_last_name_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="extnChar3"] input')</t>
+  </si>
+  <si>
+    <t>father_last_name_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="extnChar3"]').innerText</t>
+  </si>
+  <si>
+    <t>spouse_first_name_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="extnChar4"] input')</t>
+  </si>
+  <si>
+    <t>spouse_first_name_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="extnChar4"]').innerText</t>
+  </si>
+  <si>
+    <t>spouse_middle_name_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="extnChar5"] input')</t>
+  </si>
+  <si>
+    <t>spouse_middle_name_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="extnChar5"]').innerText</t>
+  </si>
+  <si>
+    <t>spouse_last_name_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="extnChar6"] input')</t>
+  </si>
+  <si>
+    <t>spouse_last_name_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="extnChar6"]').innerText</t>
+  </si>
+  <si>
+    <t>spouse_status_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="dynamicNumericField1"] ion-select')</t>
+  </si>
+  <si>
+    <t>spouse_status_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="dynamicNumericField1"]').innerText</t>
+  </si>
+  <si>
+    <t>gender_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.GENDER.TOOLTIP"]').innerText</t>
+  </si>
+  <si>
+    <t>maritail_status_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.MARITAL_STATUS.TO"]').innerText</t>
+  </si>
+  <si>
+    <t>educational_level_mandatory_verificatiion</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.EDUCATION_LEVEL.T"]').innerText</t>
+  </si>
+  <si>
+    <t>category_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="ethnicType"] ion-select')</t>
+  </si>
+  <si>
+    <t>relegion_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="religion"] ion-select')</t>
+  </si>
+  <si>
+    <t>mothers_maiden_name_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="mothersName"] input')</t>
+  </si>
+  <si>
+    <t>mothers_maiden_name_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="mothersName"]').innerText</t>
+  </si>
+  <si>
+    <t>type_of_residency_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="residenceType"] ion-select')</t>
+  </si>
+  <si>
+    <t>industry_segmentation_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="clientCategory"] ion-select')</t>
+  </si>
+  <si>
+    <t>is_income_considered_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="isIncomeConsidered"] ion-select')</t>
+  </si>
+  <si>
+    <t>customer_profile_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="dynamicCharField1"] ion-select')</t>
+  </si>
+  <si>
+    <t>relationship_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="relationship"] ion-select')</t>
+  </si>
+  <si>
+    <t>isPoliticallyExposed_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="isPoliticallyExposed"] ion-select')</t>
+  </si>
+  <si>
+    <t>remarks_field_input</t>
+  </si>
+  <si>
+    <t>remarks_field_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="remarks"]').innerText</t>
+  </si>
+  <si>
+    <t>existing_customer_flag</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-radio-button[id="existingCustomerFlag"] ion-toggle')</t>
+  </si>
+  <si>
+    <t>existing_customer_flag_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-radio-button[id="existingCustomerFlag"]').innerText</t>
+  </si>
+  <si>
+    <t>is_blacklisted_flg</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-radio-button[id="isBlacklisted"] ion-toggle')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="phone1"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="phone1"]').innerText</t>
+  </si>
+  <si>
+    <t>mobile1_number_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="mobile1"] input')</t>
+  </si>
+  <si>
+    <t>mobileNumber_primary_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="mobile1"]').innerText</t>
+  </si>
+  <si>
+    <t>mobile_number_secondary_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="mobile2"] input')</t>
+  </si>
+  <si>
+    <t>mobile_number_secondory_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="mobile2"]').innerText</t>
+  </si>
+  <si>
+    <t>email_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="email"] input')</t>
+  </si>
+  <si>
+    <t>email_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="email"]').innerText</t>
+  </si>
+  <si>
+    <t>prefered_contact_method_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="preferredContactMethod"] ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="preferredContactTime"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="preferredContactTime"]').innerText</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="product"]')</t>
+  </si>
+  <si>
+    <t>classification_ViewList</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="subProductCode"]')</t>
+  </si>
+  <si>
+    <t>Product_ViewList</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="loanTenure"]')</t>
+  </si>
+  <si>
+    <t>Tenure_ViewList</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="amountRequested"]')</t>
   </si>
 </sst>
 </file>
@@ -7198,7 +7738,7 @@
     <xf numFmtId="165" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -7253,6 +7793,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Excel Built-in Normal" xfId="2"/>
@@ -35035,7 +35576,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:B27"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -35302,7 +35843,7 @@
   <dimension ref="A1:AMJ25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -36073,10 +36614,10 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -36507,6 +37048,1118 @@
       </c>
       <c r="B53" s="13" t="s">
         <v>346</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="13" t="s">
+        <v>2301</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="13" t="s">
+        <v>2127</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="13" t="s">
+        <v>2303</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="13" t="s">
+        <v>2305</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="13" t="s">
+        <v>2307</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="13" t="s">
+        <v>2309</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="13" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="13" t="s">
+        <v>2312</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="13" t="s">
+        <v>2314</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="13" t="s">
+        <v>2316</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="13" t="s">
+        <v>2318</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="13" t="s">
+        <v>2320</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="13" t="s">
+        <v>2322</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="13" t="s">
+        <v>2324</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="13" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="13" t="s">
+        <v>2328</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="13" t="s">
+        <v>2330</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="13" t="s">
+        <v>2332</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="13" t="s">
+        <v>2334</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="26" t="s">
+        <v>2336</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="26" t="s">
+        <v>2338</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="26" t="s">
+        <v>887</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="26" t="s">
+        <v>2341</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="26" t="s">
+        <v>2343</v>
+      </c>
+      <c r="B77" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="26" t="s">
+        <v>2344</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="26" t="s">
+        <v>2346</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="26" t="s">
+        <v>2348</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="26" t="s">
+        <v>2349</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="24" t="s">
+        <v>835</v>
+      </c>
+      <c r="B82" s="42" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="13" t="s">
+        <v>836</v>
+      </c>
+      <c r="B83" s="13" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="13" t="s">
+        <v>838</v>
+      </c>
+      <c r="B84" s="13" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="13" t="s">
+        <v>840</v>
+      </c>
+      <c r="B85" s="13" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="13" t="s">
+        <v>842</v>
+      </c>
+      <c r="B86" s="13" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="13" t="s">
+        <v>844</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="13" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="13" t="s">
+        <v>846</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="13" t="s">
+        <v>2353</v>
+      </c>
+      <c r="B90" s="13" t="s">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="13" t="s">
+        <v>848</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="13" t="s">
+        <v>2355</v>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="13" t="s">
+        <v>850</v>
+      </c>
+      <c r="B93" s="13" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="13" t="s">
+        <v>2357</v>
+      </c>
+      <c r="B94" s="13" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="13" t="s">
+        <v>852</v>
+      </c>
+      <c r="B95" s="13" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="13" t="s">
+        <v>2359</v>
+      </c>
+      <c r="B96" s="13" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="13" t="s">
+        <v>854</v>
+      </c>
+      <c r="B97" s="13" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="13" t="s">
+        <v>2361</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="13" t="s">
+        <v>856</v>
+      </c>
+      <c r="B99" s="13" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="13" t="s">
+        <v>2363</v>
+      </c>
+      <c r="B100" s="13" t="s">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="13" t="s">
+        <v>858</v>
+      </c>
+      <c r="B101" s="13" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="13" t="s">
+        <v>2365</v>
+      </c>
+      <c r="B102" s="13" t="s">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="13" t="s">
+        <v>860</v>
+      </c>
+      <c r="B103" s="13" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="13" t="s">
+        <v>2367</v>
+      </c>
+      <c r="B104" s="13" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="13" t="s">
+        <v>2369</v>
+      </c>
+      <c r="B105" s="13" t="s">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="13" t="s">
+        <v>2371</v>
+      </c>
+      <c r="B106" s="13" t="s">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="13" t="s">
+        <v>862</v>
+      </c>
+      <c r="B107" s="13" t="s">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="13" t="s">
+        <v>2374</v>
+      </c>
+      <c r="B108" s="13" t="s">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="13" t="s">
+        <v>2376</v>
+      </c>
+      <c r="B109" s="13" t="s">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="13" t="s">
+        <v>863</v>
+      </c>
+      <c r="B110" s="13" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="13" t="s">
+        <v>865</v>
+      </c>
+      <c r="B111" s="13" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="13" t="s">
+        <v>867</v>
+      </c>
+      <c r="B112" s="13" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="13" t="s">
+        <v>869</v>
+      </c>
+      <c r="B113" s="13" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="13" t="s">
+        <v>871</v>
+      </c>
+      <c r="B114" s="13" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="13" t="s">
+        <v>873</v>
+      </c>
+      <c r="B115" s="13" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="13" t="s">
+        <v>875</v>
+      </c>
+      <c r="B116" s="13" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="13" t="s">
+        <v>877</v>
+      </c>
+      <c r="B117" s="13" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="13" t="s">
+        <v>879</v>
+      </c>
+      <c r="B118" s="13" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="13" t="s">
+        <v>2378</v>
+      </c>
+      <c r="B119" s="13" t="s">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="13" t="s">
+        <v>881</v>
+      </c>
+      <c r="B120" s="13" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="13" t="s">
+        <v>2381</v>
+      </c>
+      <c r="B121" s="13" t="s">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="13" t="s">
+        <v>883</v>
+      </c>
+      <c r="B122" s="13" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="13" t="s">
+        <v>885</v>
+      </c>
+      <c r="B123" s="13" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="13" t="s">
+        <v>887</v>
+      </c>
+      <c r="B124" s="13" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="13" t="s">
+        <v>889</v>
+      </c>
+      <c r="B125" s="13" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="13" t="s">
+        <v>2383</v>
+      </c>
+      <c r="B126" s="13" t="s">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="26" t="s">
+        <v>891</v>
+      </c>
+      <c r="B127" s="13" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="26" t="s">
+        <v>893</v>
+      </c>
+      <c r="B128" s="13" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="26" t="s">
+        <v>895</v>
+      </c>
+      <c r="B129" s="26" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="26" t="s">
+        <v>896</v>
+      </c>
+      <c r="B130" s="13" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="26" t="s">
+        <v>898</v>
+      </c>
+      <c r="B131" s="13" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="26" t="s">
+        <v>900</v>
+      </c>
+      <c r="B132" s="13" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="26" t="s">
+        <v>902</v>
+      </c>
+      <c r="B133" s="13" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="26" t="s">
+        <v>903</v>
+      </c>
+      <c r="B134" s="13" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="26" t="s">
+        <v>905</v>
+      </c>
+      <c r="B135" s="13" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="26" t="s">
+        <v>907</v>
+      </c>
+      <c r="B136" s="13" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="26" t="s">
+        <v>909</v>
+      </c>
+      <c r="B137" s="13" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="26" t="s">
+        <v>911</v>
+      </c>
+      <c r="B138" s="13" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="26" t="s">
+        <v>911</v>
+      </c>
+      <c r="B139" s="13" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="26" t="s">
+        <v>2385</v>
+      </c>
+      <c r="B140" s="13" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="26" t="s">
+        <v>2387</v>
+      </c>
+      <c r="B141" s="13" t="s">
+        <v>2388</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="26" t="s">
+        <v>2389</v>
+      </c>
+      <c r="B142" s="13" t="s">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="26" t="s">
+        <v>2391</v>
+      </c>
+      <c r="B143" s="13" t="s">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="26" t="s">
+        <v>2393</v>
+      </c>
+      <c r="B144" s="13" t="s">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="26" t="s">
+        <v>2395</v>
+      </c>
+      <c r="B145" s="13" t="s">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="26" t="s">
+        <v>2397</v>
+      </c>
+      <c r="B146" s="13" t="s">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="26" t="s">
+        <v>2399</v>
+      </c>
+      <c r="B147" s="13" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="26" t="s">
+        <v>2401</v>
+      </c>
+      <c r="B148" s="13" t="s">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="26" t="s">
+        <v>2403</v>
+      </c>
+      <c r="B149" s="13" t="s">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="26" t="s">
+        <v>2405</v>
+      </c>
+      <c r="B150" s="13" t="s">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="26" t="s">
+        <v>2407</v>
+      </c>
+      <c r="B151" s="13" t="s">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="26" t="s">
+        <v>2409</v>
+      </c>
+      <c r="B152" s="13" t="s">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="26" t="s">
+        <v>2411</v>
+      </c>
+      <c r="B153" s="13" t="s">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="26" t="s">
+        <v>2413</v>
+      </c>
+      <c r="B154" s="13" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="26" t="s">
+        <v>2415</v>
+      </c>
+      <c r="B155" s="13" t="s">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="26" t="s">
+        <v>2417</v>
+      </c>
+      <c r="B156" s="13" t="s">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="26" t="s">
+        <v>2419</v>
+      </c>
+      <c r="B157" s="13" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="26" t="s">
+        <v>2421</v>
+      </c>
+      <c r="B158" s="13" t="s">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="26" t="s">
+        <v>2423</v>
+      </c>
+      <c r="B159" s="13" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="26" t="s">
+        <v>2425</v>
+      </c>
+      <c r="B160" s="13" t="s">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="26" t="s">
+        <v>2427</v>
+      </c>
+      <c r="B161" s="13" t="s">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="26" t="s">
+        <v>2429</v>
+      </c>
+      <c r="B162" s="13" t="s">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="26" t="s">
+        <v>2431</v>
+      </c>
+      <c r="B163" s="13" t="s">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="26" t="s">
+        <v>2433</v>
+      </c>
+      <c r="B164" s="13" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="26" t="s">
+        <v>2435</v>
+      </c>
+      <c r="B165" s="13" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="26" t="s">
+        <v>2437</v>
+      </c>
+      <c r="B166" s="13" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="26" t="s">
+        <v>2439</v>
+      </c>
+      <c r="B167" s="13" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="26" t="s">
+        <v>2441</v>
+      </c>
+      <c r="B168" s="13" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="26" t="s">
+        <v>2443</v>
+      </c>
+      <c r="B169" s="13" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="26" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B170" s="13" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="26" t="s">
+        <v>2447</v>
+      </c>
+      <c r="B171" s="13" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="26" t="s">
+        <v>2448</v>
+      </c>
+      <c r="B172" s="13" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="26" t="s">
+        <v>2450</v>
+      </c>
+      <c r="B173" s="13" t="s">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="26" t="s">
+        <v>2452</v>
+      </c>
+      <c r="B174" s="13" t="s">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="26" t="s">
+        <v>2454</v>
+      </c>
+      <c r="B175" s="13" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="26" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B176" s="13" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="26" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B177" s="13" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="26" t="s">
+        <v>2458</v>
+      </c>
+      <c r="B178" s="13" t="s">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="26" t="s">
+        <v>2460</v>
+      </c>
+      <c r="B179" s="13" t="s">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="26" t="s">
+        <v>2462</v>
+      </c>
+      <c r="B180" s="13" t="s">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="26" t="s">
+        <v>2464</v>
+      </c>
+      <c r="B181" s="13" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="26" t="s">
+        <v>2466</v>
+      </c>
+      <c r="B182" s="13" t="s">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="26" t="s">
+        <v>2468</v>
+      </c>
+      <c r="B183" s="13" t="s">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="26" t="s">
+        <v>2470</v>
+      </c>
+      <c r="B184" s="13" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="26" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B185" s="13" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="26" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B186" s="13" t="s">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="44" t="s">
+        <v>2475</v>
+      </c>
+      <c r="B187" t="s">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="44" t="s">
+        <v>2477</v>
+      </c>
+      <c r="B188" t="s">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="44" t="s">
+        <v>2479</v>
+      </c>
+      <c r="B189" t="s">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="44" t="s">
+        <v>826</v>
+      </c>
+      <c r="B190" t="s">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="44" t="s">
+        <v>786</v>
+      </c>
+      <c r="B191" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" t="s">
+        <v>456</v>
+      </c>
+      <c r="B192" t="s">
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -36533,7 +38186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
@@ -37622,7 +39275,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
